--- a/2020年开门红竞赛统计表.xlsx
+++ b/2020年开门红竞赛统计表.xlsx
@@ -7,28 +7,150 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="机构驾意险保费达成奖统计表" sheetId="1" r:id="rId1"/>
+    <sheet name="昆明机构车险统计表" sheetId="1" r:id="rId1"/>
+    <sheet name="规模达成奖统计表" sheetId="2" r:id="rId2"/>
+    <sheet name="责任险成长奖统计表" sheetId="3" r:id="rId3"/>
+    <sheet name="诉讼保全激励奖统计表" sheetId="4" r:id="rId4"/>
+    <sheet name="机构驾意险保费达成奖统计表" sheetId="5" r:id="rId5"/>
+    <sheet name="驾意险月度个人销售奖统计表" sheetId="6" r:id="rId6"/>
+    <sheet name="驾意险月度个人联动率奖统计表" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="187">
+  <si>
+    <t>开门红昆明机构车险统计表</t>
+  </si>
+  <si>
+    <t>数据统计范围：2020-01-01 至 2020-01-18</t>
+  </si>
+  <si>
+    <t>机构</t>
+  </si>
+  <si>
+    <t>一月
+任务</t>
+  </si>
+  <si>
+    <t>二月
+任务</t>
+  </si>
+  <si>
+    <t>三月
+任务</t>
+  </si>
+  <si>
+    <t>一季度
+任务</t>
+  </si>
+  <si>
+    <t>当月保费</t>
+  </si>
+  <si>
+    <t>一季度
+保费</t>
+  </si>
+  <si>
+    <t>季度任务
+时间进度</t>
+  </si>
+  <si>
+    <t>季度
+任务达成率</t>
+  </si>
+  <si>
+    <t>百大国际</t>
+  </si>
+  <si>
+    <t>春怡雅苑</t>
+  </si>
+  <si>
+    <t>香榭丽园</t>
+  </si>
+  <si>
+    <t>宜良</t>
+  </si>
+  <si>
+    <t>东川</t>
+  </si>
+  <si>
+    <t>安宁</t>
+  </si>
+  <si>
+    <t>春之城</t>
+  </si>
+  <si>
+    <t>分公司本部</t>
+  </si>
+  <si>
+    <t>——</t>
+  </si>
+  <si>
+    <t>昆明</t>
+  </si>
+  <si>
+    <t>规模达成奖统计表</t>
+  </si>
+  <si>
+    <t>组别</t>
+  </si>
+  <si>
+    <t>任务目标</t>
+  </si>
+  <si>
+    <t>季度保费</t>
+  </si>
+  <si>
+    <t>任务进度</t>
+  </si>
+  <si>
+    <t>保山</t>
+  </si>
+  <si>
+    <t>曲靖</t>
+  </si>
+  <si>
+    <t>昭通</t>
+  </si>
+  <si>
+    <t>怒江</t>
+  </si>
+  <si>
+    <t>大理</t>
+  </si>
+  <si>
+    <t>文山</t>
+  </si>
+  <si>
+    <t>版纳</t>
+  </si>
+  <si>
+    <t>分公司整体</t>
+  </si>
+  <si>
+    <t>A组</t>
+  </si>
+  <si>
+    <t>B组</t>
+  </si>
+  <si>
+    <t>责任险发展奖统计表</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>责任险
+季度保费</t>
+  </si>
+  <si>
+    <t>诉讼保全激励奖统计表</t>
+  </si>
   <si>
     <t>机构驾意险保费达成奖统计表</t>
-  </si>
-  <si>
-    <t>数据统计范围：2020-01-01 至 2020-01-16</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>机构</t>
-  </si>
-  <si>
-    <t>季度保费</t>
   </si>
   <si>
     <t>一阶段
@@ -47,31 +169,434 @@
 时间进度</t>
   </si>
   <si>
-    <t>版纳</t>
-  </si>
-  <si>
-    <t>怒江</t>
-  </si>
-  <si>
-    <t>昆明</t>
-  </si>
-  <si>
-    <t>文山</t>
-  </si>
-  <si>
-    <t>曲靖</t>
-  </si>
-  <si>
-    <t>大理</t>
-  </si>
-  <si>
-    <t>保山</t>
-  </si>
-  <si>
-    <t>昭通</t>
-  </si>
-  <si>
-    <t>分公司整体</t>
+    <t>驾意险月度个人销售奖统计表</t>
+  </si>
+  <si>
+    <t>排名</t>
+  </si>
+  <si>
+    <t>中支</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>驾意险
+月度保费</t>
+  </si>
+  <si>
+    <t>驾意险
+签单笔数</t>
+  </si>
+  <si>
+    <t>李守洪</t>
+  </si>
+  <si>
+    <t>李小文</t>
+  </si>
+  <si>
+    <t>朱菊美</t>
+  </si>
+  <si>
+    <t>李锦发</t>
+  </si>
+  <si>
+    <t>杜庆玲</t>
+  </si>
+  <si>
+    <t>李俊华</t>
+  </si>
+  <si>
+    <t>赵福庆</t>
+  </si>
+  <si>
+    <t>徐攀</t>
+  </si>
+  <si>
+    <t>陈俊波</t>
+  </si>
+  <si>
+    <t>张艳美</t>
+  </si>
+  <si>
+    <t>张四龙</t>
+  </si>
+  <si>
+    <t>陈俊</t>
+  </si>
+  <si>
+    <t>刘志明</t>
+  </si>
+  <si>
+    <t>依腊波</t>
+  </si>
+  <si>
+    <t>王祖生</t>
+  </si>
+  <si>
+    <t>陶霞</t>
+  </si>
+  <si>
+    <t>张晓铁</t>
+  </si>
+  <si>
+    <t>施晓丽</t>
+  </si>
+  <si>
+    <t>赵清</t>
+  </si>
+  <si>
+    <t>吴永艳</t>
+  </si>
+  <si>
+    <t>蔡龙</t>
+  </si>
+  <si>
+    <t>浦自琼</t>
+  </si>
+  <si>
+    <t>陈富明</t>
+  </si>
+  <si>
+    <t>赵寿芬</t>
+  </si>
+  <si>
+    <t>李夏冰</t>
+  </si>
+  <si>
+    <t>李俊杰</t>
+  </si>
+  <si>
+    <t>张峰</t>
+  </si>
+  <si>
+    <t>罗绍雪</t>
+  </si>
+  <si>
+    <t>马林宇</t>
+  </si>
+  <si>
+    <t>胡清顺</t>
+  </si>
+  <si>
+    <t>常晓龙</t>
+  </si>
+  <si>
+    <t>施建忠</t>
+  </si>
+  <si>
+    <t>李丁川</t>
+  </si>
+  <si>
+    <t>李剑</t>
+  </si>
+  <si>
+    <t>谢恩禄</t>
+  </si>
+  <si>
+    <t>鲁晓芹</t>
+  </si>
+  <si>
+    <t>邓金英</t>
+  </si>
+  <si>
+    <t>张洪光</t>
+  </si>
+  <si>
+    <t>王洪成</t>
+  </si>
+  <si>
+    <t>李丽</t>
+  </si>
+  <si>
+    <t>缪祥汝</t>
+  </si>
+  <si>
+    <t>龙德香</t>
+  </si>
+  <si>
+    <t>张纯</t>
+  </si>
+  <si>
+    <t>张志敏</t>
+  </si>
+  <si>
+    <t>李红</t>
+  </si>
+  <si>
+    <t>向学昆</t>
+  </si>
+  <si>
+    <t>杨月凌</t>
+  </si>
+  <si>
+    <t>白联洲</t>
+  </si>
+  <si>
+    <t>范权芝</t>
+  </si>
+  <si>
+    <t>安兴春</t>
+  </si>
+  <si>
+    <t>吴容</t>
+  </si>
+  <si>
+    <t>王书文</t>
+  </si>
+  <si>
+    <t>雷永刚</t>
+  </si>
+  <si>
+    <t>姚啟剑</t>
+  </si>
+  <si>
+    <t>王玉梅</t>
+  </si>
+  <si>
+    <t>麻贵华</t>
+  </si>
+  <si>
+    <t>王庆莉</t>
+  </si>
+  <si>
+    <t>钟美玲</t>
+  </si>
+  <si>
+    <t>朱雪廷</t>
+  </si>
+  <si>
+    <t>张泽艳</t>
+  </si>
+  <si>
+    <t>沈银辉</t>
+  </si>
+  <si>
+    <t>刘清</t>
+  </si>
+  <si>
+    <t>黄丽梅</t>
+  </si>
+  <si>
+    <t>高霞</t>
+  </si>
+  <si>
+    <t>周金萍</t>
+  </si>
+  <si>
+    <t>赵美</t>
+  </si>
+  <si>
+    <t>周松</t>
+  </si>
+  <si>
+    <t>李沅霞</t>
+  </si>
+  <si>
+    <t>梁喜萍</t>
+  </si>
+  <si>
+    <t>范菊花</t>
+  </si>
+  <si>
+    <t>唐东阳</t>
+  </si>
+  <si>
+    <t>何稀</t>
+  </si>
+  <si>
+    <t>樊艳国</t>
+  </si>
+  <si>
+    <t>范志明</t>
+  </si>
+  <si>
+    <t>张绍清</t>
+  </si>
+  <si>
+    <t>宋兰竹</t>
+  </si>
+  <si>
+    <t>凡锐</t>
+  </si>
+  <si>
+    <t>曹伟成</t>
+  </si>
+  <si>
+    <t>何铭</t>
+  </si>
+  <si>
+    <t>何万勇</t>
+  </si>
+  <si>
+    <t>王振荣</t>
+  </si>
+  <si>
+    <t>陈静</t>
+  </si>
+  <si>
+    <t>周丽娟</t>
+  </si>
+  <si>
+    <t>刘丽</t>
+  </si>
+  <si>
+    <t>何照丽</t>
+  </si>
+  <si>
+    <t>周旭盛</t>
+  </si>
+  <si>
+    <t>付朝津</t>
+  </si>
+  <si>
+    <t>罗红英</t>
+  </si>
+  <si>
+    <t>肖元庆</t>
+  </si>
+  <si>
+    <t>余颖辉</t>
+  </si>
+  <si>
+    <t>吴梅</t>
+  </si>
+  <si>
+    <t>饶锔</t>
+  </si>
+  <si>
+    <t>方自强</t>
+  </si>
+  <si>
+    <t>王万章</t>
+  </si>
+  <si>
+    <t>伏林海</t>
+  </si>
+  <si>
+    <t>杨新艾</t>
+  </si>
+  <si>
+    <t>杨春艳</t>
+  </si>
+  <si>
+    <t>李春林</t>
+  </si>
+  <si>
+    <t>何江涛</t>
+  </si>
+  <si>
+    <t>盛宇超</t>
+  </si>
+  <si>
+    <t>秦萍</t>
+  </si>
+  <si>
+    <t>杨金梅</t>
+  </si>
+  <si>
+    <t>张宇</t>
+  </si>
+  <si>
+    <t>张春芳</t>
+  </si>
+  <si>
+    <t>谢怀永</t>
+  </si>
+  <si>
+    <t>俞丽芳</t>
+  </si>
+  <si>
+    <t>杨建辉</t>
+  </si>
+  <si>
+    <t>李朝勇</t>
+  </si>
+  <si>
+    <t>李曼君</t>
+  </si>
+  <si>
+    <t>谌莉</t>
+  </si>
+  <si>
+    <t>杨树兰</t>
+  </si>
+  <si>
+    <t>段晓波</t>
+  </si>
+  <si>
+    <t>谢晓辉</t>
+  </si>
+  <si>
+    <t>刘中娥</t>
+  </si>
+  <si>
+    <t>何亚琼</t>
+  </si>
+  <si>
+    <t>杨晓琴</t>
+  </si>
+  <si>
+    <t>和娟</t>
+  </si>
+  <si>
+    <t>丁德俊</t>
+  </si>
+  <si>
+    <t>李洪江</t>
+  </si>
+  <si>
+    <t>熊夏瑜</t>
+  </si>
+  <si>
+    <t>陈蕾</t>
+  </si>
+  <si>
+    <t>张龙泉</t>
+  </si>
+  <si>
+    <t>刘靓</t>
+  </si>
+  <si>
+    <t>李华慧</t>
+  </si>
+  <si>
+    <t>杨宝明</t>
+  </si>
+  <si>
+    <t>陆文萍</t>
+  </si>
+  <si>
+    <t>李光杰</t>
+  </si>
+  <si>
+    <t>赵梦霞</t>
+  </si>
+  <si>
+    <t>李婷</t>
+  </si>
+  <si>
+    <t>王世年</t>
+  </si>
+  <si>
+    <t>马宏春</t>
+  </si>
+  <si>
+    <t>罗忠松</t>
+  </si>
+  <si>
+    <t>郑雯一</t>
+  </si>
+  <si>
+    <t>驾意险月度个人联动率奖统计表</t>
+  </si>
+  <si>
+    <t>车险签单
+车辆数</t>
+  </si>
+  <si>
+    <t>驾意险
+联动率</t>
   </si>
 </sst>
 </file>
@@ -466,9 +991,841 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="7" width="8.7109375" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4">
+        <v>90</v>
+      </c>
+      <c r="C4" s="4">
+        <v>110</v>
+      </c>
+      <c r="D4" s="4">
+        <v>120</v>
+      </c>
+      <c r="E4" s="4">
+        <v>320</v>
+      </c>
+      <c r="F4" s="5">
+        <v>113.567641</v>
+      </c>
+      <c r="G4" s="5">
+        <v>113.567641</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1.794210994965278</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.3548988781250001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4">
+        <v>70</v>
+      </c>
+      <c r="C5" s="4">
+        <v>85</v>
+      </c>
+      <c r="D5" s="4">
+        <v>110</v>
+      </c>
+      <c r="E5" s="4">
+        <v>265</v>
+      </c>
+      <c r="F5" s="5">
+        <v>74.43929999999999</v>
+      </c>
+      <c r="G5" s="5">
+        <v>74.43929999999999</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1.420120817610063</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.2809030188679245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
+        <v>45</v>
+      </c>
+      <c r="C6" s="4">
+        <v>65</v>
+      </c>
+      <c r="D6" s="4">
+        <v>90</v>
+      </c>
+      <c r="E6" s="4">
+        <v>200</v>
+      </c>
+      <c r="F6" s="5">
+        <v>45.29117500000001</v>
+      </c>
+      <c r="G6" s="5">
+        <v>45.29117500000001</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1.144860256944445</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.2264558750000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4">
+        <v>55</v>
+      </c>
+      <c r="C7" s="4">
+        <v>80</v>
+      </c>
+      <c r="D7" s="4">
+        <v>100</v>
+      </c>
+      <c r="E7" s="4">
+        <v>235</v>
+      </c>
+      <c r="F7" s="5">
+        <v>81.89334600000001</v>
+      </c>
+      <c r="G7" s="5">
+        <v>81.89334600000001</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1.761771746099291</v>
+      </c>
+      <c r="I7" s="6">
+        <v>0.3484823234042553</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4">
+        <v>55</v>
+      </c>
+      <c r="C8" s="4">
+        <v>80</v>
+      </c>
+      <c r="D8" s="4">
+        <v>100</v>
+      </c>
+      <c r="E8" s="4">
+        <v>235</v>
+      </c>
+      <c r="F8" s="5">
+        <v>56.009177</v>
+      </c>
+      <c r="G8" s="5">
+        <v>56.009177</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1.204925557210402</v>
+      </c>
+      <c r="I8" s="6">
+        <v>0.2383369234042553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4">
+        <v>25</v>
+      </c>
+      <c r="C9" s="4">
+        <v>35</v>
+      </c>
+      <c r="D9" s="4">
+        <v>45</v>
+      </c>
+      <c r="E9" s="4">
+        <v>105</v>
+      </c>
+      <c r="F9" s="5">
+        <v>24.424521</v>
+      </c>
+      <c r="G9" s="5">
+        <v>24.424521</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1.175995455555556</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.2326144857142857</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4">
+        <v>20</v>
+      </c>
+      <c r="E10" s="4">
+        <v>40</v>
+      </c>
+      <c r="F10" s="5">
+        <v>56.764929</v>
+      </c>
+      <c r="G10" s="5">
+        <v>56.764929</v>
+      </c>
+      <c r="H10" s="6">
+        <v>7.174456304166667</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1.419123225</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="5">
+        <v>55.51944599999999</v>
+      </c>
+      <c r="G11" s="5">
+        <v>55.51944599999999</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="4">
+        <v>345</v>
+      </c>
+      <c r="C12" s="4">
+        <v>470</v>
+      </c>
+      <c r="D12" s="4">
+        <v>585</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1400</v>
+      </c>
+      <c r="F12" s="5">
+        <v>507.9095350000002</v>
+      </c>
+      <c r="G12" s="5">
+        <v>507.9095350000002</v>
+      </c>
+      <c r="H12" s="6">
+        <v>1.834117765277778</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.3627925250000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="6" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4">
+        <v>120</v>
+      </c>
+      <c r="D4" s="5">
+        <v>43.55277699999998</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.3629398083333332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="4">
+        <v>531</v>
+      </c>
+      <c r="D5" s="5">
+        <v>64.34886099999997</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.2079831148775895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4">
+        <v>150</v>
+      </c>
+      <c r="D6" s="5">
+        <v>21.760431</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.14506954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="4">
+        <v>135</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3.503843</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.02595439259259259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="8" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4">
+        <v>48</v>
+      </c>
+      <c r="D9" s="5">
+        <v>21.837696</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.454952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="4">
+        <v>54</v>
+      </c>
+      <c r="D10" s="5">
+        <v>16.13699799999999</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.2988332962962961</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4">
+        <v>72</v>
+      </c>
+      <c r="D11" s="5">
+        <v>10.656446</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.1480061944444444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="4">
+        <v>60</v>
+      </c>
+      <c r="D12" s="5">
+        <v>6.339654999999992</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.1056609166666665</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4">
+        <v>1170</v>
+      </c>
+      <c r="D13" s="5">
+        <v>234.2268800000006</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.2001939145299151</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A9:A12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="24" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5">
+        <v>11.246613</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5">
+        <v>3.614526999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="5">
+        <v>3.567925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="5">
+        <v>2.540945</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="5">
+        <v>2.119797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1.474527</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.283962</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.16132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="5">
+        <v>25.009616</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="24" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5">
+        <v>5.879013</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.215973</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1.130142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1.018868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.481131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="5">
+        <v>9.725127000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -482,7 +1839,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="24" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -504,25 +1861,25 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -530,22 +1887,22 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5">
-        <v>4.156942999999997</v>
+        <v>4.498982999999996</v>
       </c>
       <c r="D4" s="4">
         <v>8</v>
       </c>
       <c r="E4" s="6">
-        <v>2.955326664062497</v>
+        <v>2.843107312499997</v>
       </c>
       <c r="F4" s="4">
         <v>9</v>
       </c>
       <c r="G4" s="6">
-        <v>2.62695703472222</v>
+        <v>2.527206499999998</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -553,22 +1910,22 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5">
-        <v>1.245302</v>
+        <v>1.274368</v>
       </c>
       <c r="D5" s="4">
         <v>2.5</v>
       </c>
       <c r="E5" s="6">
-        <v>2.83306205</v>
+        <v>2.577055288888889</v>
       </c>
       <c r="F5" s="4">
         <v>3</v>
       </c>
       <c r="G5" s="6">
-        <v>2.360885041666667</v>
+        <v>2.147546074074075</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -576,22 +1933,22 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C6" s="5">
-        <v>3.582837</v>
+        <v>3.693627</v>
       </c>
       <c r="D6" s="4">
         <v>9</v>
       </c>
       <c r="E6" s="6">
-        <v>2.2641539375</v>
+        <v>2.074815166666667</v>
       </c>
       <c r="F6" s="4">
         <v>11</v>
       </c>
       <c r="G6" s="6">
-        <v>1.852489585227273</v>
+        <v>1.697576045454545</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -599,22 +1956,22 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C7" s="5">
-        <v>3.623002999999999</v>
+        <v>3.764720999999998</v>
       </c>
       <c r="D7" s="4">
         <v>10</v>
       </c>
       <c r="E7" s="6">
-        <v>2.060582956249999</v>
+        <v>1.903275616666666</v>
       </c>
       <c r="F7" s="4">
         <v>12</v>
       </c>
       <c r="G7" s="6">
-        <v>1.717152463541666</v>
+        <v>1.586063013888888</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -622,22 +1979,22 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C8" s="5">
-        <v>7.203698999999991</v>
+        <v>7.57969999999999</v>
       </c>
       <c r="D8" s="4">
         <v>23</v>
       </c>
       <c r="E8" s="6">
-        <v>1.781349480978259</v>
+        <v>1.666069323671495</v>
       </c>
       <c r="F8" s="4">
         <v>25</v>
       </c>
       <c r="G8" s="6">
-        <v>1.638841522499998</v>
+        <v>1.532783777777776</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -645,22 +2002,22 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C9" s="5">
-        <v>4.825298999999998</v>
+        <v>5.005574999999998</v>
       </c>
       <c r="D9" s="4">
         <v>16</v>
       </c>
       <c r="E9" s="6">
-        <v>1.715243003906249</v>
+        <v>1.581622656249999</v>
       </c>
       <c r="F9" s="4">
         <v>19</v>
       </c>
       <c r="G9" s="6">
-        <v>1.44441516118421</v>
+        <v>1.331892763157894</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -668,7 +2025,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5">
         <v>0.9852660000000002</v>
@@ -677,13 +2034,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="6">
-        <v>1.867900125</v>
+        <v>1.660355666666667</v>
       </c>
       <c r="F10" s="4">
         <v>4</v>
       </c>
       <c r="G10" s="6">
-        <v>1.40092509375</v>
+        <v>1.24526675</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -691,7 +2048,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C11" s="5">
         <v>0.11136</v>
@@ -700,34 +2057,34 @@
         <v>1.5</v>
       </c>
       <c r="E11" s="6">
-        <v>0.4222400000000001</v>
+        <v>0.3753244444444445</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
       </c>
       <c r="G11" s="6">
-        <v>0.31668</v>
+        <v>0.2814933333333334</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C12" s="5">
-        <v>25.73370899999988</v>
+        <v>26.91359999999989</v>
       </c>
       <c r="D12" s="4">
         <v>73</v>
       </c>
       <c r="E12" s="6">
-        <v>2.004937944349306</v>
+        <v>1.863879452054787</v>
       </c>
       <c r="F12" s="4">
         <v>85</v>
       </c>
       <c r="G12" s="6">
-        <v>1.721887881617639</v>
+        <v>1.600743529411758</v>
       </c>
     </row>
   </sheetData>
@@ -737,4 +2094,5045 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E136"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="5">
+        <v>10255.54</v>
+      </c>
+      <c r="E4" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7190.64</v>
+      </c>
+      <c r="E5" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="5">
+        <v>6957.42</v>
+      </c>
+      <c r="E6" s="4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6646.440000000001</v>
+      </c>
+      <c r="E7" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="5">
+        <v>6368.94</v>
+      </c>
+      <c r="E8" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="5">
+        <v>5713.610000000001</v>
+      </c>
+      <c r="E9" s="4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="5">
+        <v>5674.76</v>
+      </c>
+      <c r="E10" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5510.11</v>
+      </c>
+      <c r="E11" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="5">
+        <v>5415.15</v>
+      </c>
+      <c r="E12" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="5">
+        <v>5385.240000000001</v>
+      </c>
+      <c r="E13" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="5">
+        <v>5363.800000000001</v>
+      </c>
+      <c r="E14" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="5">
+        <v>5019.65</v>
+      </c>
+      <c r="E15" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="5">
+        <v>4736.259999999999</v>
+      </c>
+      <c r="E16" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="5">
+        <v>4703.040000000001</v>
+      </c>
+      <c r="E17" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="5">
+        <v>4620.219999999999</v>
+      </c>
+      <c r="E18" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="5">
+        <v>4568.13</v>
+      </c>
+      <c r="E19" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="4">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="5">
+        <v>4398.14</v>
+      </c>
+      <c r="E20" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="5">
+        <v>4363.42</v>
+      </c>
+      <c r="E21" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="4">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="5">
+        <v>4120.04</v>
+      </c>
+      <c r="E22" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="5">
+        <v>3944.26</v>
+      </c>
+      <c r="E23" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="4">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="5">
+        <v>3770.2</v>
+      </c>
+      <c r="E24" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="5">
+        <v>3653.6</v>
+      </c>
+      <c r="E25" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="5">
+        <v>3615.12</v>
+      </c>
+      <c r="E26" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="5">
+        <v>3567.38</v>
+      </c>
+      <c r="E27" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="4">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="5">
+        <v>3561.72</v>
+      </c>
+      <c r="E28" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="4">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="5">
+        <v>3498.14</v>
+      </c>
+      <c r="E29" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="4">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="5">
+        <v>3420.78</v>
+      </c>
+      <c r="E30" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="4">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="5">
+        <v>3420.76</v>
+      </c>
+      <c r="E31" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="4">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="5">
+        <v>3342.66</v>
+      </c>
+      <c r="E32" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="4">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="5">
+        <v>3274.16</v>
+      </c>
+      <c r="E33" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="4">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="5">
+        <v>3231.72</v>
+      </c>
+      <c r="E34" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="4">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="5">
+        <v>3226.06</v>
+      </c>
+      <c r="E35" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="4">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="5">
+        <v>3225.42</v>
+      </c>
+      <c r="E36" s="4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="4">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="5">
+        <v>3209.26</v>
+      </c>
+      <c r="E37" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="4">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D38" s="5">
+        <v>3128.48</v>
+      </c>
+      <c r="E38" s="4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="4">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D39" s="5">
+        <v>3085.400000000001</v>
+      </c>
+      <c r="E39" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="4">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" s="5">
+        <v>2994.16</v>
+      </c>
+      <c r="E40" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="4">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="5">
+        <v>2876.24</v>
+      </c>
+      <c r="E41" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="4">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="5">
+        <v>2735.48</v>
+      </c>
+      <c r="E42" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="4">
+        <v>40</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="5">
+        <v>2712.02</v>
+      </c>
+      <c r="E43" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="4">
+        <v>41</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="5">
+        <v>2702.46</v>
+      </c>
+      <c r="E44" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="4">
+        <v>42</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" s="5">
+        <v>2687.76</v>
+      </c>
+      <c r="E45" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="4">
+        <v>43</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="5">
+        <v>2681.9</v>
+      </c>
+      <c r="E46" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="4">
+        <v>44</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="5">
+        <v>2514.27</v>
+      </c>
+      <c r="E47" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="4">
+        <v>45</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="5">
+        <v>2423.62</v>
+      </c>
+      <c r="E48" s="4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="4">
+        <v>46</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="5">
+        <v>2394.55</v>
+      </c>
+      <c r="E49" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="4">
+        <v>47</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="5">
+        <v>2210.02</v>
+      </c>
+      <c r="E50" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="4">
+        <v>48</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="5">
+        <v>2187.74</v>
+      </c>
+      <c r="E51" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="4">
+        <v>49</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="5">
+        <v>2181.99</v>
+      </c>
+      <c r="E52" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="4">
+        <v>50</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="5">
+        <v>2171.38</v>
+      </c>
+      <c r="E53" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="4">
+        <v>51</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" s="5">
+        <v>2163.93</v>
+      </c>
+      <c r="E54" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="4">
+        <v>52</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="5">
+        <v>2138.89</v>
+      </c>
+      <c r="E55" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="4">
+        <v>53</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="5">
+        <v>2137.74</v>
+      </c>
+      <c r="E56" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="4">
+        <v>54</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="5">
+        <v>1969.42</v>
+      </c>
+      <c r="E57" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="4">
+        <v>55</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="5">
+        <v>1759.26</v>
+      </c>
+      <c r="E58" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="4">
+        <v>56</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" s="5">
+        <v>1749.63</v>
+      </c>
+      <c r="E59" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="4">
+        <v>57</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" s="5">
+        <v>1711.33</v>
+      </c>
+      <c r="E60" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="4">
+        <v>58</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61" s="5">
+        <v>1706.13</v>
+      </c>
+      <c r="E61" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="4">
+        <v>59</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D62" s="5">
+        <v>1632.46</v>
+      </c>
+      <c r="E62" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="4">
+        <v>60</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="5">
+        <v>1624.74</v>
+      </c>
+      <c r="E63" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="4">
+        <v>61</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1593.6</v>
+      </c>
+      <c r="E64" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="4">
+        <v>62</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D65" s="5">
+        <v>1515.86</v>
+      </c>
+      <c r="E65" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="4">
+        <v>63</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" s="5">
+        <v>1477</v>
+      </c>
+      <c r="E66" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="4">
+        <v>64</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67" s="5">
+        <v>1456.13</v>
+      </c>
+      <c r="E67" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="4">
+        <v>65</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D68" s="5">
+        <v>1399.26</v>
+      </c>
+      <c r="E68" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="4">
+        <v>66</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" s="5">
+        <v>1376.6</v>
+      </c>
+      <c r="E69" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="4">
+        <v>67</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D70" s="5">
+        <v>1360.38</v>
+      </c>
+      <c r="E70" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="4">
+        <v>68</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D71" s="5">
+        <v>1360.38</v>
+      </c>
+      <c r="E71" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="4">
+        <v>69</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D72" s="5">
+        <v>1330.6</v>
+      </c>
+      <c r="E72" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="4">
+        <v>70</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" s="5">
+        <v>1311.7</v>
+      </c>
+      <c r="E73" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="4">
+        <v>71</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D74" s="5">
+        <v>1282.66</v>
+      </c>
+      <c r="E74" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="4">
+        <v>72</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D75" s="5">
+        <v>1259.52</v>
+      </c>
+      <c r="E75" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="4">
+        <v>73</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D76" s="5">
+        <v>1243.78</v>
+      </c>
+      <c r="E76" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="4">
+        <v>74</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D77" s="5">
+        <v>1204.92</v>
+      </c>
+      <c r="E77" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="4">
+        <v>75</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D78" s="5">
+        <v>1171.99</v>
+      </c>
+      <c r="E78" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="4">
+        <v>76</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D79" s="5">
+        <v>1166.04</v>
+      </c>
+      <c r="E79" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="4">
+        <v>77</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D80" s="5">
+        <v>1138.31</v>
+      </c>
+      <c r="E80" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="4">
+        <v>78</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D81" s="5">
+        <v>1118.59</v>
+      </c>
+      <c r="E81" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="4">
+        <v>79</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D82" s="5">
+        <v>1057.65</v>
+      </c>
+      <c r="E82" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="4">
+        <v>80</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D83" s="5">
+        <v>1044.98</v>
+      </c>
+      <c r="E83" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="4">
+        <v>81</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D84" s="5">
+        <v>1010.58</v>
+      </c>
+      <c r="E84" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="4">
+        <v>82</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D85" s="5">
+        <v>1010.58</v>
+      </c>
+      <c r="E85" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="4">
+        <v>83</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D86" s="5">
+        <v>977.36</v>
+      </c>
+      <c r="E86" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="4">
+        <v>84</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D87" s="5">
+        <v>974.8199999999999</v>
+      </c>
+      <c r="E87" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="4">
+        <v>85</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D88" s="5">
+        <v>905.1</v>
+      </c>
+      <c r="E88" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="4">
+        <v>86</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D89" s="5">
+        <v>855.1</v>
+      </c>
+      <c r="E89" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="4">
+        <v>87</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D90" s="5">
+        <v>830.76</v>
+      </c>
+      <c r="E90" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="4">
+        <v>88</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D91" s="5">
+        <v>777.36</v>
+      </c>
+      <c r="E91" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="4">
+        <v>89</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D92" s="5">
+        <v>777.36</v>
+      </c>
+      <c r="E92" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="4">
+        <v>90</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D93" s="5">
+        <v>777.36</v>
+      </c>
+      <c r="E93" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="4">
+        <v>91</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D94" s="5">
+        <v>738.5</v>
+      </c>
+      <c r="E94" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="4">
+        <v>92</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D95" s="5">
+        <v>710.76</v>
+      </c>
+      <c r="E95" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="4">
+        <v>93</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D96" s="5">
+        <v>660.76</v>
+      </c>
+      <c r="E96" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="4">
+        <v>94</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D97" s="5">
+        <v>586.42</v>
+      </c>
+      <c r="E97" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="4">
+        <v>95</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D98" s="5">
+        <v>583.02</v>
+      </c>
+      <c r="E98" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="4">
+        <v>96</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D99" s="5">
+        <v>583.02</v>
+      </c>
+      <c r="E99" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="4">
+        <v>97</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D100" s="5">
+        <v>583.02</v>
+      </c>
+      <c r="E100" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="4">
+        <v>98</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D101" s="5">
+        <v>544.16</v>
+      </c>
+      <c r="E101" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="4">
+        <v>99</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D102" s="5">
+        <v>488.68</v>
+      </c>
+      <c r="E102" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="4">
+        <v>100</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D103" s="5">
+        <v>488.68</v>
+      </c>
+      <c r="E103" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="4">
+        <v>101</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D104" s="5">
+        <v>485</v>
+      </c>
+      <c r="E104" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="4">
+        <v>102</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D105" s="5">
+        <v>466.42</v>
+      </c>
+      <c r="E105" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="4">
+        <v>103</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D106" s="5">
+        <v>466.42</v>
+      </c>
+      <c r="E106" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="4">
+        <v>104</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D107" s="5">
+        <v>466.42</v>
+      </c>
+      <c r="E107" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="4">
+        <v>105</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D108" s="5">
+        <v>438.68</v>
+      </c>
+      <c r="E108" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="4">
+        <v>106</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D109" s="5">
+        <v>388.68</v>
+      </c>
+      <c r="E109" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="4">
+        <v>107</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D110" s="5">
+        <v>388.68</v>
+      </c>
+      <c r="E110" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="4">
+        <v>108</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D111" s="5">
+        <v>388.68</v>
+      </c>
+      <c r="E111" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="4">
+        <v>109</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D112" s="5">
+        <v>388.68</v>
+      </c>
+      <c r="E112" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="4">
+        <v>110</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D113" s="5">
+        <v>310.94</v>
+      </c>
+      <c r="E113" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="4">
+        <v>111</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D114" s="5">
+        <v>272.08</v>
+      </c>
+      <c r="E114" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="4">
+        <v>112</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D115" s="5">
+        <v>272.08</v>
+      </c>
+      <c r="E115" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="4">
+        <v>113</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D116" s="5">
+        <v>272.08</v>
+      </c>
+      <c r="E116" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="4">
+        <v>114</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D117" s="5">
+        <v>264.16</v>
+      </c>
+      <c r="E117" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="4">
+        <v>115</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D118" s="5">
+        <v>244.34</v>
+      </c>
+      <c r="E118" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="4">
+        <v>116</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D119" s="5">
+        <v>244.34</v>
+      </c>
+      <c r="E119" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="4">
+        <v>117</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D120" s="5">
+        <v>244.34</v>
+      </c>
+      <c r="E120" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="4">
+        <v>118</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D121" s="5">
+        <v>244.34</v>
+      </c>
+      <c r="E121" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="4">
+        <v>119</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D122" s="5">
+        <v>244.34</v>
+      </c>
+      <c r="E122" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="4">
+        <v>120</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D123" s="5">
+        <v>235.85</v>
+      </c>
+      <c r="E123" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="4">
+        <v>121</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D124" s="5">
+        <v>194.34</v>
+      </c>
+      <c r="E124" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="4">
+        <v>122</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D125" s="5">
+        <v>194.34</v>
+      </c>
+      <c r="E125" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="4">
+        <v>123</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D126" s="5">
+        <v>194.34</v>
+      </c>
+      <c r="E126" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="4">
+        <v>124</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D127" s="5">
+        <v>194.34</v>
+      </c>
+      <c r="E127" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="4">
+        <v>125</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D128" s="5">
+        <v>194.34</v>
+      </c>
+      <c r="E128" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="4">
+        <v>126</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D129" s="5">
+        <v>194.34</v>
+      </c>
+      <c r="E129" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="4">
+        <v>127</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D130" s="5">
+        <v>194.34</v>
+      </c>
+      <c r="E130" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="4">
+        <v>128</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D131" s="5">
+        <v>194.34</v>
+      </c>
+      <c r="E131" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="4">
+        <v>129</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D132" s="5">
+        <v>194.34</v>
+      </c>
+      <c r="E132" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="4">
+        <v>130</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D133" s="5">
+        <v>194.34</v>
+      </c>
+      <c r="E133" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="4">
+        <v>131</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D134" s="5">
+        <v>194.34</v>
+      </c>
+      <c r="E134" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="4">
+        <v>132</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D135" s="5">
+        <v>188.68</v>
+      </c>
+      <c r="E135" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="4">
+        <v>133</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D136" s="5">
+        <v>96.89</v>
+      </c>
+      <c r="E136" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F136"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="4">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4">
+        <v>14</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.7857142857142857</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="4">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4">
+        <v>44</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="4">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4">
+        <v>28</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.6785714285714286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="4">
+        <v>20</v>
+      </c>
+      <c r="E9" s="4">
+        <v>30</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4">
+        <v>6</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3</v>
+      </c>
+      <c r="F11" s="6">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.6666666666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="4">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="4">
+        <v>17</v>
+      </c>
+      <c r="E13" s="4">
+        <v>26</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.6538461538461539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" s="4">
+        <v>9</v>
+      </c>
+      <c r="E14" s="4">
+        <v>15</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="4">
+        <v>12</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="4">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="4">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4">
+        <v>7</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="4">
+        <v>14</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="4">
+        <v>31</v>
+      </c>
+      <c r="E17" s="4">
+        <v>55</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.5636363636363636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="4">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="4">
+        <v>18</v>
+      </c>
+      <c r="E18" s="4">
+        <v>34</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.5294117647058824</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="4">
+        <v>16</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="4">
+        <v>9</v>
+      </c>
+      <c r="E19" s="4">
+        <v>17</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.5294117647058824</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="4">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="4">
+        <v>11</v>
+      </c>
+      <c r="E20" s="4">
+        <v>21</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.5238095238095238</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="4">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="4">
+        <v>15</v>
+      </c>
+      <c r="E21" s="4">
+        <v>29</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.5172413793103449</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="4">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="4">
+        <v>3</v>
+      </c>
+      <c r="E22" s="4">
+        <v>6</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="4">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="4">
+        <v>16</v>
+      </c>
+      <c r="E23" s="4">
+        <v>33</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0.4848484848484849</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="4">
+        <v>21</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="4">
+        <v>13</v>
+      </c>
+      <c r="E24" s="4">
+        <v>28</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0.4642857142857143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="4">
+        <v>22</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="4">
+        <v>13</v>
+      </c>
+      <c r="E25" s="4">
+        <v>28</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0.4642857142857143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="4">
+        <v>23</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="4">
+        <v>12</v>
+      </c>
+      <c r="E26" s="4">
+        <v>26</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.4615384615384616</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="4">
+        <v>24</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="4">
+        <v>10</v>
+      </c>
+      <c r="E27" s="4">
+        <v>22</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0.4545454545454545</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="4">
+        <v>25</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="4">
+        <v>14</v>
+      </c>
+      <c r="E28" s="4">
+        <v>31</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0.4516129032258064</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4">
+        <v>26</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="4">
+        <v>23</v>
+      </c>
+      <c r="E29" s="4">
+        <v>51</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0.4509803921568628</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4">
+        <v>27</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="4">
+        <v>4</v>
+      </c>
+      <c r="E30" s="4">
+        <v>9</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0.4444444444444444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="4">
+        <v>28</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="4">
+        <v>7</v>
+      </c>
+      <c r="E31" s="4">
+        <v>16</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="4">
+        <v>29</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="4">
+        <v>31</v>
+      </c>
+      <c r="E32" s="4">
+        <v>71</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0.4366197183098591</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="4">
+        <v>30</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="4">
+        <v>10</v>
+      </c>
+      <c r="E33" s="4">
+        <v>23</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0.4347826086956522</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="4">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="4">
+        <v>19</v>
+      </c>
+      <c r="E34" s="4">
+        <v>44</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0.4318181818181818</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="4">
+        <v>32</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="4">
+        <v>22</v>
+      </c>
+      <c r="E35" s="4">
+        <v>52</v>
+      </c>
+      <c r="F35" s="6">
+        <v>0.4230769230769231</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="4">
+        <v>33</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36" s="4">
+        <v>13</v>
+      </c>
+      <c r="E36" s="4">
+        <v>31</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0.4193548387096774</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="4">
+        <v>34</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="4">
+        <v>16</v>
+      </c>
+      <c r="E37" s="4">
+        <v>40</v>
+      </c>
+      <c r="F37" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="4">
+        <v>35</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="4">
+        <v>14</v>
+      </c>
+      <c r="E38" s="4">
+        <v>35</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="4">
+        <v>36</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="4">
+        <v>26</v>
+      </c>
+      <c r="E39" s="4">
+        <v>68</v>
+      </c>
+      <c r="F39" s="6">
+        <v>0.3823529411764706</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="4">
+        <v>37</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" s="4">
+        <v>21</v>
+      </c>
+      <c r="E40" s="4">
+        <v>55</v>
+      </c>
+      <c r="F40" s="6">
+        <v>0.3818181818181818</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="4">
+        <v>38</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="4">
+        <v>19</v>
+      </c>
+      <c r="E41" s="4">
+        <v>50</v>
+      </c>
+      <c r="F41" s="6">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="4">
+        <v>39</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="4">
+        <v>48</v>
+      </c>
+      <c r="E42" s="4">
+        <v>130</v>
+      </c>
+      <c r="F42" s="6">
+        <v>0.3692307692307693</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="4">
+        <v>40</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="4">
+        <v>16</v>
+      </c>
+      <c r="E43" s="4">
+        <v>45</v>
+      </c>
+      <c r="F43" s="6">
+        <v>0.3555555555555556</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="4">
+        <v>41</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="4">
+        <v>8</v>
+      </c>
+      <c r="E44" s="4">
+        <v>23</v>
+      </c>
+      <c r="F44" s="6">
+        <v>0.3478260869565217</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="4">
+        <v>42</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="4">
+        <v>18</v>
+      </c>
+      <c r="E45" s="4">
+        <v>54</v>
+      </c>
+      <c r="F45" s="6">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="4">
+        <v>43</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="4">
+        <v>3</v>
+      </c>
+      <c r="E46" s="4">
+        <v>9</v>
+      </c>
+      <c r="F46" s="6">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="4">
+        <v>44</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4">
+        <v>3</v>
+      </c>
+      <c r="F47" s="6">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="4">
+        <v>45</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="4">
+        <v>26</v>
+      </c>
+      <c r="E48" s="4">
+        <v>79</v>
+      </c>
+      <c r="F48" s="6">
+        <v>0.3291139240506329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="4">
+        <v>46</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="4">
+        <v>19</v>
+      </c>
+      <c r="E49" s="4">
+        <v>58</v>
+      </c>
+      <c r="F49" s="6">
+        <v>0.3275862068965517</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="4">
+        <v>47</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D50" s="4">
+        <v>5</v>
+      </c>
+      <c r="E50" s="4">
+        <v>16</v>
+      </c>
+      <c r="F50" s="6">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="4">
+        <v>48</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="4">
+        <v>14</v>
+      </c>
+      <c r="E51" s="4">
+        <v>45</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0.3111111111111111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="4">
+        <v>49</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="4">
+        <v>18</v>
+      </c>
+      <c r="E52" s="4">
+        <v>59</v>
+      </c>
+      <c r="F52" s="6">
+        <v>0.3050847457627119</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="4">
+        <v>50</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D53" s="4">
+        <v>13</v>
+      </c>
+      <c r="E53" s="4">
+        <v>43</v>
+      </c>
+      <c r="F53" s="6">
+        <v>0.3023255813953488</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="4">
+        <v>51</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="4">
+        <v>18</v>
+      </c>
+      <c r="E54" s="4">
+        <v>61</v>
+      </c>
+      <c r="F54" s="6">
+        <v>0.2950819672131147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="4">
+        <v>52</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="4">
+        <v>16</v>
+      </c>
+      <c r="E55" s="4">
+        <v>55</v>
+      </c>
+      <c r="F55" s="6">
+        <v>0.2909090909090909</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="4">
+        <v>53</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="4">
+        <v>12</v>
+      </c>
+      <c r="E56" s="4">
+        <v>42</v>
+      </c>
+      <c r="F56" s="6">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="4">
+        <v>54</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" s="4">
+        <v>8</v>
+      </c>
+      <c r="E57" s="4">
+        <v>28</v>
+      </c>
+      <c r="F57" s="6">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="4">
+        <v>55</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" s="4">
+        <v>4</v>
+      </c>
+      <c r="E58" s="4">
+        <v>14</v>
+      </c>
+      <c r="F58" s="6">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="4">
+        <v>56</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D59" s="4">
+        <v>11</v>
+      </c>
+      <c r="E59" s="4">
+        <v>40</v>
+      </c>
+      <c r="F59" s="6">
+        <v>0.275</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="4">
+        <v>57</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="4">
+        <v>7</v>
+      </c>
+      <c r="E60" s="4">
+        <v>27</v>
+      </c>
+      <c r="F60" s="6">
+        <v>0.2592592592592592</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="4">
+        <v>58</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D61" s="4">
+        <v>8</v>
+      </c>
+      <c r="E61" s="4">
+        <v>31</v>
+      </c>
+      <c r="F61" s="6">
+        <v>0.2580645161290323</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="4">
+        <v>59</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="4">
+        <v>25</v>
+      </c>
+      <c r="E62" s="4">
+        <v>98</v>
+      </c>
+      <c r="F62" s="6">
+        <v>0.2551020408163265</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="4">
+        <v>60</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63" s="4">
+        <v>5</v>
+      </c>
+      <c r="E63" s="4">
+        <v>20</v>
+      </c>
+      <c r="F63" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="4">
+        <v>61</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64" s="4">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4">
+        <v>4</v>
+      </c>
+      <c r="F64" s="6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="4">
+        <v>62</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" s="4">
+        <v>18</v>
+      </c>
+      <c r="E65" s="4">
+        <v>76</v>
+      </c>
+      <c r="F65" s="6">
+        <v>0.2368421052631579</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="4">
+        <v>63</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" s="4">
+        <v>22</v>
+      </c>
+      <c r="E66" s="4">
+        <v>94</v>
+      </c>
+      <c r="F66" s="6">
+        <v>0.2340425531914894</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="4">
+        <v>64</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D67" s="4">
+        <v>9</v>
+      </c>
+      <c r="E67" s="4">
+        <v>39</v>
+      </c>
+      <c r="F67" s="6">
+        <v>0.2307692307692308</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="4">
+        <v>65</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" s="4">
+        <v>2</v>
+      </c>
+      <c r="E68" s="4">
+        <v>9</v>
+      </c>
+      <c r="F68" s="6">
+        <v>0.2222222222222222</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="4">
+        <v>66</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D69" s="4">
+        <v>6</v>
+      </c>
+      <c r="E69" s="4">
+        <v>28</v>
+      </c>
+      <c r="F69" s="6">
+        <v>0.2142857142857143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="4">
+        <v>67</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D70" s="4">
+        <v>2</v>
+      </c>
+      <c r="E70" s="4">
+        <v>10</v>
+      </c>
+      <c r="F70" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="4">
+        <v>68</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" s="4">
+        <v>26</v>
+      </c>
+      <c r="E71" s="4">
+        <v>142</v>
+      </c>
+      <c r="F71" s="6">
+        <v>0.1830985915492958</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="4">
+        <v>69</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" s="4">
+        <v>12</v>
+      </c>
+      <c r="E72" s="4">
+        <v>66</v>
+      </c>
+      <c r="F72" s="6">
+        <v>0.1818181818181818</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="4">
+        <v>70</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D73" s="4">
+        <v>9</v>
+      </c>
+      <c r="E73" s="4">
+        <v>50</v>
+      </c>
+      <c r="F73" s="6">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="4">
+        <v>71</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74" s="4">
+        <v>7</v>
+      </c>
+      <c r="E74" s="4">
+        <v>40</v>
+      </c>
+      <c r="F74" s="6">
+        <v>0.175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="4">
+        <v>72</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D75" s="4">
+        <v>6</v>
+      </c>
+      <c r="E75" s="4">
+        <v>36</v>
+      </c>
+      <c r="F75" s="6">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="4">
+        <v>73</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D76" s="4">
+        <v>5</v>
+      </c>
+      <c r="E76" s="4">
+        <v>30</v>
+      </c>
+      <c r="F76" s="6">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="4">
+        <v>74</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D77" s="4">
+        <v>3</v>
+      </c>
+      <c r="E77" s="4">
+        <v>18</v>
+      </c>
+      <c r="F77" s="6">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="4">
+        <v>75</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D78" s="4">
+        <v>1</v>
+      </c>
+      <c r="E78" s="4">
+        <v>6</v>
+      </c>
+      <c r="F78" s="6">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="4">
+        <v>76</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D79" s="4">
+        <v>8</v>
+      </c>
+      <c r="E79" s="4">
+        <v>49</v>
+      </c>
+      <c r="F79" s="6">
+        <v>0.163265306122449</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="4">
+        <v>77</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D80" s="4">
+        <v>7</v>
+      </c>
+      <c r="E80" s="4">
+        <v>43</v>
+      </c>
+      <c r="F80" s="6">
+        <v>0.1627906976744186</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="4">
+        <v>78</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D81" s="4">
+        <v>3</v>
+      </c>
+      <c r="E81" s="4">
+        <v>20</v>
+      </c>
+      <c r="F81" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="4">
+        <v>79</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D82" s="4">
+        <v>11</v>
+      </c>
+      <c r="E82" s="4">
+        <v>74</v>
+      </c>
+      <c r="F82" s="6">
+        <v>0.1486486486486487</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="4">
+        <v>80</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D83" s="4">
+        <v>6</v>
+      </c>
+      <c r="E83" s="4">
+        <v>41</v>
+      </c>
+      <c r="F83" s="6">
+        <v>0.1463414634146341</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="4">
+        <v>81</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D84" s="4">
+        <v>3</v>
+      </c>
+      <c r="E84" s="4">
+        <v>21</v>
+      </c>
+      <c r="F84" s="6">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="4">
+        <v>82</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1</v>
+      </c>
+      <c r="E85" s="4">
+        <v>7</v>
+      </c>
+      <c r="F85" s="6">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="4">
+        <v>83</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1</v>
+      </c>
+      <c r="E86" s="4">
+        <v>7</v>
+      </c>
+      <c r="F86" s="6">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="4">
+        <v>84</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1</v>
+      </c>
+      <c r="E87" s="4">
+        <v>7</v>
+      </c>
+      <c r="F87" s="6">
+        <v>0.1428571428571428</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="4">
+        <v>85</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D88" s="4">
+        <v>5</v>
+      </c>
+      <c r="E88" s="4">
+        <v>36</v>
+      </c>
+      <c r="F88" s="6">
+        <v>0.1388888888888889</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="4">
+        <v>86</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D89" s="4">
+        <v>3</v>
+      </c>
+      <c r="E89" s="4">
+        <v>22</v>
+      </c>
+      <c r="F89" s="6">
+        <v>0.1363636363636364</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="4">
+        <v>87</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D90" s="4">
+        <v>14</v>
+      </c>
+      <c r="E90" s="4">
+        <v>103</v>
+      </c>
+      <c r="F90" s="6">
+        <v>0.1359223300970874</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="4">
+        <v>88</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D91" s="4">
+        <v>2</v>
+      </c>
+      <c r="E91" s="4">
+        <v>16</v>
+      </c>
+      <c r="F91" s="6">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="4">
+        <v>89</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D92" s="4">
+        <v>1</v>
+      </c>
+      <c r="E92" s="4">
+        <v>8</v>
+      </c>
+      <c r="F92" s="6">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="4">
+        <v>90</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D93" s="4">
+        <v>1</v>
+      </c>
+      <c r="E93" s="4">
+        <v>8</v>
+      </c>
+      <c r="F93" s="6">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="4">
+        <v>91</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D94" s="4">
+        <v>1</v>
+      </c>
+      <c r="E94" s="4">
+        <v>8</v>
+      </c>
+      <c r="F94" s="6">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="4">
+        <v>92</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D95" s="4">
+        <v>6</v>
+      </c>
+      <c r="E95" s="4">
+        <v>49</v>
+      </c>
+      <c r="F95" s="6">
+        <v>0.1224489795918367</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="4">
+        <v>93</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D96" s="4">
+        <v>2</v>
+      </c>
+      <c r="E96" s="4">
+        <v>18</v>
+      </c>
+      <c r="F96" s="6">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="4">
+        <v>94</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D97" s="4">
+        <v>2</v>
+      </c>
+      <c r="E97" s="4">
+        <v>18</v>
+      </c>
+      <c r="F97" s="6">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="4">
+        <v>95</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D98" s="4">
+        <v>1</v>
+      </c>
+      <c r="E98" s="4">
+        <v>9</v>
+      </c>
+      <c r="F98" s="6">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="4">
+        <v>96</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D99" s="4">
+        <v>5</v>
+      </c>
+      <c r="E99" s="4">
+        <v>48</v>
+      </c>
+      <c r="F99" s="6">
+        <v>0.1041666666666667</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="4">
+        <v>97</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D100" s="4">
+        <v>7</v>
+      </c>
+      <c r="E100" s="4">
+        <v>70</v>
+      </c>
+      <c r="F100" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="4">
+        <v>98</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D101" s="4">
+        <v>2</v>
+      </c>
+      <c r="E101" s="4">
+        <v>20</v>
+      </c>
+      <c r="F101" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="4">
+        <v>99</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D102" s="4">
+        <v>4</v>
+      </c>
+      <c r="E102" s="4">
+        <v>44</v>
+      </c>
+      <c r="F102" s="6">
+        <v>0.09090909090909091</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="4">
+        <v>100</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D103" s="4">
+        <v>6</v>
+      </c>
+      <c r="E103" s="4">
+        <v>69</v>
+      </c>
+      <c r="F103" s="6">
+        <v>0.08695652173913043</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="4">
+        <v>101</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D104" s="4">
+        <v>9</v>
+      </c>
+      <c r="E104" s="4">
+        <v>106</v>
+      </c>
+      <c r="F104" s="6">
+        <v>0.08490566037735849</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="4">
+        <v>102</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D105" s="4">
+        <v>16</v>
+      </c>
+      <c r="E105" s="4">
+        <v>192</v>
+      </c>
+      <c r="F105" s="6">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="4">
+        <v>103</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D106" s="4">
+        <v>4</v>
+      </c>
+      <c r="E106" s="4">
+        <v>48</v>
+      </c>
+      <c r="F106" s="6">
+        <v>0.08333333333333333</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="4">
+        <v>104</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D107" s="4">
+        <v>4</v>
+      </c>
+      <c r="E107" s="4">
+        <v>50</v>
+      </c>
+      <c r="F107" s="6">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="4">
+        <v>105</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D108" s="4">
+        <v>6</v>
+      </c>
+      <c r="E108" s="4">
+        <v>78</v>
+      </c>
+      <c r="F108" s="6">
+        <v>0.07692307692307693</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="4">
+        <v>106</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D109" s="4">
+        <v>6</v>
+      </c>
+      <c r="E109" s="4">
+        <v>82</v>
+      </c>
+      <c r="F109" s="6">
+        <v>0.07317073170731707</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="4">
+        <v>107</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D110" s="4">
+        <v>2</v>
+      </c>
+      <c r="E110" s="4">
+        <v>28</v>
+      </c>
+      <c r="F110" s="6">
+        <v>0.07142857142857142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="4">
+        <v>108</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D111" s="4">
+        <v>6</v>
+      </c>
+      <c r="E111" s="4">
+        <v>88</v>
+      </c>
+      <c r="F111" s="6">
+        <v>0.06818181818181818</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="4">
+        <v>109</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D112" s="4">
+        <v>3</v>
+      </c>
+      <c r="E112" s="4">
+        <v>44</v>
+      </c>
+      <c r="F112" s="6">
+        <v>0.06818181818181818</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="4">
+        <v>110</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D113" s="4">
+        <v>4</v>
+      </c>
+      <c r="E113" s="4">
+        <v>59</v>
+      </c>
+      <c r="F113" s="6">
+        <v>0.06779661016949153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="4">
+        <v>111</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D114" s="4">
+        <v>5</v>
+      </c>
+      <c r="E114" s="4">
+        <v>80</v>
+      </c>
+      <c r="F114" s="6">
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="4">
+        <v>112</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D115" s="4">
+        <v>28</v>
+      </c>
+      <c r="E115" s="4">
+        <v>467</v>
+      </c>
+      <c r="F115" s="6">
+        <v>0.05995717344753747</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="4">
+        <v>113</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D116" s="4">
+        <v>1</v>
+      </c>
+      <c r="E116" s="4">
+        <v>18</v>
+      </c>
+      <c r="F116" s="6">
+        <v>0.05555555555555555</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="4">
+        <v>114</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D117" s="4">
+        <v>2</v>
+      </c>
+      <c r="E117" s="4">
+        <v>38</v>
+      </c>
+      <c r="F117" s="6">
+        <v>0.05263157894736842</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="4">
+        <v>115</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D118" s="4">
+        <v>2</v>
+      </c>
+      <c r="E118" s="4">
+        <v>40</v>
+      </c>
+      <c r="F118" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="4">
+        <v>116</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D119" s="4">
+        <v>1</v>
+      </c>
+      <c r="E119" s="4">
+        <v>21</v>
+      </c>
+      <c r="F119" s="6">
+        <v>0.04761904761904762</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="4">
+        <v>117</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D120" s="4">
+        <v>2</v>
+      </c>
+      <c r="E120" s="4">
+        <v>43</v>
+      </c>
+      <c r="F120" s="6">
+        <v>0.04651162790697674</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="4">
+        <v>118</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D121" s="4">
+        <v>4</v>
+      </c>
+      <c r="E121" s="4">
+        <v>94</v>
+      </c>
+      <c r="F121" s="6">
+        <v>0.0425531914893617</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="4">
+        <v>119</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D122" s="4">
+        <v>1</v>
+      </c>
+      <c r="E122" s="4">
+        <v>25</v>
+      </c>
+      <c r="F122" s="6">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="4">
+        <v>120</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D123" s="4">
+        <v>1</v>
+      </c>
+      <c r="E123" s="4">
+        <v>25</v>
+      </c>
+      <c r="F123" s="6">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="4">
+        <v>121</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D124" s="4">
+        <v>2</v>
+      </c>
+      <c r="E124" s="4">
+        <v>62</v>
+      </c>
+      <c r="F124" s="6">
+        <v>0.03225806451612903</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="4">
+        <v>122</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D125" s="4">
+        <v>1</v>
+      </c>
+      <c r="E125" s="4">
+        <v>33</v>
+      </c>
+      <c r="F125" s="6">
+        <v>0.0303030303030303</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="4">
+        <v>123</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D126" s="4">
+        <v>1</v>
+      </c>
+      <c r="E126" s="4">
+        <v>33</v>
+      </c>
+      <c r="F126" s="6">
+        <v>0.0303030303030303</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="4">
+        <v>124</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D127" s="4">
+        <v>1</v>
+      </c>
+      <c r="E127" s="4">
+        <v>34</v>
+      </c>
+      <c r="F127" s="6">
+        <v>0.02941176470588235</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="4">
+        <v>125</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D128" s="4">
+        <v>5</v>
+      </c>
+      <c r="E128" s="4">
+        <v>175</v>
+      </c>
+      <c r="F128" s="6">
+        <v>0.02857142857142857</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="4">
+        <v>126</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D129" s="4">
+        <v>1</v>
+      </c>
+      <c r="E129" s="4">
+        <v>38</v>
+      </c>
+      <c r="F129" s="6">
+        <v>0.02631578947368421</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="4">
+        <v>127</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D130" s="4">
+        <v>1</v>
+      </c>
+      <c r="E130" s="4">
+        <v>42</v>
+      </c>
+      <c r="F130" s="6">
+        <v>0.02380952380952381</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="4">
+        <v>128</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D131" s="4">
+        <v>6</v>
+      </c>
+      <c r="E131" s="4">
+        <v>253</v>
+      </c>
+      <c r="F131" s="6">
+        <v>0.02371541501976284</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="4">
+        <v>129</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D132" s="4">
+        <v>1</v>
+      </c>
+      <c r="E132" s="4">
+        <v>47</v>
+      </c>
+      <c r="F132" s="6">
+        <v>0.02127659574468085</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="4">
+        <v>130</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D133" s="4">
+        <v>1</v>
+      </c>
+      <c r="E133" s="4">
+        <v>51</v>
+      </c>
+      <c r="F133" s="6">
+        <v>0.0196078431372549</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="4">
+        <v>131</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D134" s="4">
+        <v>1</v>
+      </c>
+      <c r="E134" s="4">
+        <v>58</v>
+      </c>
+      <c r="F134" s="6">
+        <v>0.01724137931034483</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="4">
+        <v>132</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D135" s="4">
+        <v>3</v>
+      </c>
+      <c r="E135" s="4">
+        <v>199</v>
+      </c>
+      <c r="F135" s="6">
+        <v>0.01507537688442211</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="4">
+        <v>133</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D136" s="4">
+        <v>33</v>
+      </c>
+      <c r="E136" s="4">
+        <v>0</v>
+      </c>
+      <c r="F136" s="6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2020年开门红竞赛统计表.xlsx
+++ b/2020年开门红竞赛统计表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="20490" windowHeight="7860" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="昆明机构车险统计表" sheetId="1" r:id="rId1"/>
@@ -15,17 +15,17 @@
     <sheet name="驾意险月度个人销售奖统计表" sheetId="6" r:id="rId6"/>
     <sheet name="驾意险月度个人联动率奖统计表" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="191">
   <si>
     <t>开门红昆明机构车险统计表</t>
   </si>
   <si>
-    <t>数据统计范围：2020-01-01 至 2020-01-18</t>
+    <t>数据统计范围：2020-01-01 至 2020-01-19</t>
   </si>
   <si>
     <t>机构</t>
@@ -92,7 +92,7 @@
     <t>昆明</t>
   </si>
   <si>
-    <t>规模达成奖统计表</t>
+    <t>非车险规模达成奖统计表</t>
   </si>
   <si>
     <t>组别</t>
@@ -107,6 +107,9 @@
     <t>任务进度</t>
   </si>
   <si>
+    <t>A组</t>
+  </si>
+  <si>
     <t>保山</t>
   </si>
   <si>
@@ -116,6 +119,9 @@
     <t>昭通</t>
   </si>
   <si>
+    <t>B组</t>
+  </si>
+  <si>
     <t>怒江</t>
   </si>
   <si>
@@ -131,13 +137,7 @@
     <t>分公司整体</t>
   </si>
   <si>
-    <t>A组</t>
-  </si>
-  <si>
-    <t>B组</t>
-  </si>
-  <si>
-    <t>责任险发展奖统计表</t>
+    <t>非车险责任险发展奖统计表</t>
   </si>
   <si>
     <t>序号</t>
@@ -147,10 +147,10 @@
 季度保费</t>
   </si>
   <si>
-    <t>诉讼保全激励奖统计表</t>
-  </si>
-  <si>
-    <t>机构驾意险保费达成奖统计表</t>
+    <t>非车险诉讼保全激励奖统计表</t>
+  </si>
+  <si>
+    <t>非车险机构驾意险保费达成奖统计表</t>
   </si>
   <si>
     <t>一阶段
@@ -169,7 +169,7 @@
 时间进度</t>
   </si>
   <si>
-    <t>驾意险月度个人销售奖统计表</t>
+    <t>非车险驾意险月度个人销售奖统计表</t>
   </si>
   <si>
     <t>排名</t>
@@ -192,10 +192,16 @@
     <t>李守洪</t>
   </si>
   <si>
+    <t>朱菊美</t>
+  </si>
+  <si>
+    <t>赵福庆</t>
+  </si>
+  <si>
     <t>李小文</t>
   </si>
   <si>
-    <t>朱菊美</t>
+    <t>徐攀</t>
   </si>
   <si>
     <t>李锦发</t>
@@ -207,109 +213,118 @@
     <t>李俊华</t>
   </si>
   <si>
-    <t>赵福庆</t>
-  </si>
-  <si>
-    <t>徐攀</t>
+    <t>张四龙</t>
   </si>
   <si>
     <t>陈俊波</t>
   </si>
   <si>
+    <t>陈俊</t>
+  </si>
+  <si>
     <t>张艳美</t>
   </si>
   <si>
-    <t>张四龙</t>
-  </si>
-  <si>
-    <t>陈俊</t>
+    <t>陶霞</t>
+  </si>
+  <si>
+    <t>依腊波</t>
+  </si>
+  <si>
+    <t>胡清顺</t>
   </si>
   <si>
     <t>刘志明</t>
   </si>
   <si>
-    <t>依腊波</t>
-  </si>
-  <si>
     <t>王祖生</t>
   </si>
   <si>
-    <t>陶霞</t>
+    <t>李剑</t>
   </si>
   <si>
     <t>张晓铁</t>
   </si>
   <si>
+    <t>施建忠</t>
+  </si>
+  <si>
     <t>施晓丽</t>
   </si>
   <si>
     <t>赵清</t>
   </si>
   <si>
+    <t>张峰</t>
+  </si>
+  <si>
+    <t>浦自琼</t>
+  </si>
+  <si>
+    <t>李夏冰</t>
+  </si>
+  <si>
+    <t>邓金英</t>
+  </si>
+  <si>
+    <t>谢恩禄</t>
+  </si>
+  <si>
+    <t>蔡龙</t>
+  </si>
+  <si>
     <t>吴永艳</t>
   </si>
   <si>
-    <t>蔡龙</t>
-  </si>
-  <si>
-    <t>浦自琼</t>
-  </si>
-  <si>
     <t>陈富明</t>
   </si>
   <si>
+    <t>罗绍雪</t>
+  </si>
+  <si>
+    <t>李俊杰</t>
+  </si>
+  <si>
+    <t>常晓龙</t>
+  </si>
+  <si>
     <t>赵寿芬</t>
   </si>
   <si>
-    <t>李夏冰</t>
-  </si>
-  <si>
-    <t>李俊杰</t>
-  </si>
-  <si>
-    <t>张峰</t>
-  </si>
-  <si>
-    <t>罗绍雪</t>
+    <t>张志敏</t>
+  </si>
+  <si>
+    <t>李丁川</t>
+  </si>
+  <si>
+    <t>王洪成</t>
   </si>
   <si>
     <t>马林宇</t>
   </si>
   <si>
-    <t>胡清顺</t>
-  </si>
-  <si>
-    <t>常晓龙</t>
-  </si>
-  <si>
-    <t>施建忠</t>
-  </si>
-  <si>
-    <t>李丁川</t>
-  </si>
-  <si>
-    <t>李剑</t>
-  </si>
-  <si>
-    <t>谢恩禄</t>
+    <t>张洪光</t>
+  </si>
+  <si>
+    <t>樊艳国</t>
+  </si>
+  <si>
+    <t>李丽</t>
+  </si>
+  <si>
+    <t>缪祥汝</t>
   </si>
   <si>
     <t>鲁晓芹</t>
   </si>
   <si>
-    <t>邓金英</t>
-  </si>
-  <si>
-    <t>张洪光</t>
-  </si>
-  <si>
-    <t>王洪成</t>
-  </si>
-  <si>
-    <t>李丽</t>
-  </si>
-  <si>
-    <t>缪祥汝</t>
+    <t>杨月凌</t>
+  </si>
+  <si>
+    <t>王书文</t>
+  </si>
+  <si>
+    <t>安兴春</t>
   </si>
   <si>
     <t>龙德香</t>
@@ -318,16 +333,16 @@
     <t>张纯</t>
   </si>
   <si>
-    <t>张志敏</t>
-  </si>
-  <si>
     <t>李红</t>
   </si>
   <si>
     <t>向学昆</t>
   </si>
   <si>
-    <t>杨月凌</t>
+    <t>麻贵华</t>
+  </si>
+  <si>
+    <t>钟美玲</t>
   </si>
   <si>
     <t>白联洲</t>
@@ -336,45 +351,39 @@
     <t>范权芝</t>
   </si>
   <si>
-    <t>安兴春</t>
+    <t>沈银辉</t>
   </si>
   <si>
     <t>吴容</t>
   </si>
   <si>
-    <t>王书文</t>
-  </si>
-  <si>
     <t>雷永刚</t>
   </si>
   <si>
     <t>姚啟剑</t>
   </si>
   <si>
+    <t>张泽艳</t>
+  </si>
+  <si>
     <t>王玉梅</t>
   </si>
   <si>
-    <t>麻贵华</t>
-  </si>
-  <si>
     <t>王庆莉</t>
   </si>
   <si>
-    <t>钟美玲</t>
-  </si>
-  <si>
     <t>朱雪廷</t>
   </si>
   <si>
-    <t>张泽艳</t>
-  </si>
-  <si>
-    <t>沈银辉</t>
+    <t>凡锐</t>
   </si>
   <si>
     <t>刘清</t>
   </si>
   <si>
+    <t>王振荣</t>
+  </si>
+  <si>
     <t>黄丽梅</t>
   </si>
   <si>
@@ -384,9 +393,18 @@
     <t>周金萍</t>
   </si>
   <si>
+    <t>范志明</t>
+  </si>
+  <si>
     <t>赵美</t>
   </si>
   <si>
+    <t>曹伟成</t>
+  </si>
+  <si>
+    <t>肖元庆</t>
+  </si>
+  <si>
     <t>周松</t>
   </si>
   <si>
@@ -405,10 +423,7 @@
     <t>何稀</t>
   </si>
   <si>
-    <t>樊艳国</t>
-  </si>
-  <si>
-    <t>范志明</t>
+    <t>盛宇超</t>
   </si>
   <si>
     <t>张绍清</t>
@@ -417,21 +432,12 @@
     <t>宋兰竹</t>
   </si>
   <si>
-    <t>凡锐</t>
-  </si>
-  <si>
-    <t>曹伟成</t>
-  </si>
-  <si>
     <t>何铭</t>
   </si>
   <si>
     <t>何万勇</t>
   </si>
   <si>
-    <t>王振荣</t>
-  </si>
-  <si>
     <t>陈静</t>
   </si>
   <si>
@@ -450,12 +456,15 @@
     <t>付朝津</t>
   </si>
   <si>
+    <t>张文丽</t>
+  </si>
+  <si>
+    <t>俞丽芳</t>
+  </si>
+  <si>
     <t>罗红英</t>
   </si>
   <si>
-    <t>肖元庆</t>
-  </si>
-  <si>
     <t>余颖辉</t>
   </si>
   <si>
@@ -474,6 +483,9 @@
     <t>伏林海</t>
   </si>
   <si>
+    <t>杨建辉</t>
+  </si>
+  <si>
     <t>杨新艾</t>
   </si>
   <si>
@@ -483,15 +495,24 @@
     <t>李春林</t>
   </si>
   <si>
+    <t>谌莉</t>
+  </si>
+  <si>
     <t>何江涛</t>
   </si>
   <si>
-    <t>盛宇超</t>
-  </si>
-  <si>
     <t>秦萍</t>
   </si>
   <si>
+    <t>江朝丽</t>
+  </si>
+  <si>
+    <t>陶孟超</t>
+  </si>
+  <si>
+    <t>熊夏瑜</t>
+  </si>
+  <si>
     <t>杨金梅</t>
   </si>
   <si>
@@ -504,10 +525,7 @@
     <t>谢怀永</t>
   </si>
   <si>
-    <t>俞丽芳</t>
-  </si>
-  <si>
-    <t>杨建辉</t>
+    <t>李婷</t>
   </si>
   <si>
     <t>李朝勇</t>
@@ -516,9 +534,6 @@
     <t>李曼君</t>
   </si>
   <si>
-    <t>谌莉</t>
-  </si>
-  <si>
     <t>杨树兰</t>
   </si>
   <si>
@@ -546,9 +561,6 @@
     <t>李洪江</t>
   </si>
   <si>
-    <t>熊夏瑜</t>
-  </si>
-  <si>
     <t>陈蕾</t>
   </si>
   <si>
@@ -570,12 +582,12 @@
     <t>李光杰</t>
   </si>
   <si>
+    <t>彭晓龙</t>
+  </si>
+  <si>
     <t>赵梦霞</t>
   </si>
   <si>
-    <t>李婷</t>
-  </si>
-  <si>
     <t>王世年</t>
   </si>
   <si>
@@ -588,7 +600,7 @@
     <t>郑雯一</t>
   </si>
   <si>
-    <t>驾意险月度个人联动率奖统计表</t>
+    <t>非车险驾意险月度个人联动率奖统计表</t>
   </si>
   <si>
     <t>车险签单
@@ -603,16 +615,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.00"/>
-    <numFmt numFmtId="165" formatCode="0.00%"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -620,37 +634,374 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -673,9 +1024,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -691,18 +1284,70 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -985,24 +1630,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="9" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.7083333333333" customWidth="1"/>
+    <col min="2" max="7" width="8.70833333333333" customWidth="1"/>
+    <col min="8" max="9" width="12.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="24" customHeight="1">
+    <row r="1" ht="24" customHeight="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1015,7 +1662,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" ht="14.25" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1028,7 +1675,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" ht="30" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1057,7 +1704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" ht="16.5" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1073,20 +1720,20 @@
       <c r="E4" s="4">
         <v>320</v>
       </c>
-      <c r="F4" s="5">
-        <v>113.567641</v>
-      </c>
-      <c r="G4" s="5">
-        <v>113.567641</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1.794210994965278</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.3548988781250001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="F4" s="6">
+        <v>120.697803</v>
+      </c>
+      <c r="G4" s="6">
+        <v>120.697803</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1.80649672253289</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.377180634375</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:9">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1102,20 +1749,20 @@
       <c r="E5" s="4">
         <v>265</v>
       </c>
-      <c r="F5" s="5">
-        <v>74.43929999999999</v>
-      </c>
-      <c r="G5" s="5">
-        <v>74.43929999999999</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1.420120817610063</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0.2809030188679245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="F5" s="6">
+        <v>79.552373</v>
+      </c>
+      <c r="G5" s="6">
+        <v>79.552373</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1.43778866792453</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.300197633962264</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:9">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -1131,20 +1778,20 @@
       <c r="E6" s="4">
         <v>200</v>
       </c>
-      <c r="F6" s="5">
-        <v>45.29117500000001</v>
-      </c>
-      <c r="G6" s="5">
-        <v>45.29117500000001</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1.144860256944445</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.2264558750000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="F6" s="6">
+        <v>48.164788</v>
+      </c>
+      <c r="G6" s="6">
+        <v>48.164788</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1.15341992315789</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.24082394</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:9">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1160,20 +1807,20 @@
       <c r="E7" s="4">
         <v>235</v>
       </c>
-      <c r="F7" s="5">
-        <v>81.89334600000001</v>
-      </c>
-      <c r="G7" s="5">
-        <v>81.89334600000001</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1.761771746099291</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0.3484823234042553</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="F7" s="6">
+        <v>95.050329</v>
+      </c>
+      <c r="G7" s="6">
+        <v>95.050329</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1.9371959549832</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.404469485106383</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:9">
       <c r="A8" s="4" t="s">
         <v>15</v>
       </c>
@@ -1189,20 +1836,20 @@
       <c r="E8" s="4">
         <v>235</v>
       </c>
-      <c r="F8" s="5">
-        <v>56.009177</v>
-      </c>
-      <c r="G8" s="5">
-        <v>56.009177</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1.204925557210402</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0.2383369234042553</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="F8" s="6">
+        <v>60.141654</v>
+      </c>
+      <c r="G8" s="6">
+        <v>60.141654</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1.2257313581187</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.255921931914894</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:9">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -1218,20 +1865,20 @@
       <c r="E9" s="4">
         <v>105</v>
       </c>
-      <c r="F9" s="5">
-        <v>24.424521</v>
-      </c>
-      <c r="G9" s="5">
-        <v>24.424521</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1.175995455555556</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0.2326144857142857</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="F9" s="6">
+        <v>26.427556</v>
+      </c>
+      <c r="G9" s="6">
+        <v>26.427556</v>
+      </c>
+      <c r="H9" s="5">
+        <v>1.20546746666667</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.25169100952381</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:9">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -1247,20 +1894,20 @@
       <c r="E10" s="4">
         <v>40</v>
       </c>
-      <c r="F10" s="5">
-        <v>56.764929</v>
-      </c>
-      <c r="G10" s="5">
-        <v>56.764929</v>
-      </c>
-      <c r="H10" s="6">
-        <v>7.174456304166667</v>
-      </c>
-      <c r="I10" s="6">
-        <v>1.419123225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="F10" s="6">
+        <v>57.70485</v>
+      </c>
+      <c r="G10" s="6">
+        <v>57.70485</v>
+      </c>
+      <c r="H10" s="5">
+        <v>6.90939651315789</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1.44262125</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:9">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -1276,20 +1923,20 @@
       <c r="E11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="5">
-        <v>55.51944599999999</v>
-      </c>
-      <c r="G11" s="5">
-        <v>55.51944599999999</v>
-      </c>
-      <c r="H11" s="6" t="s">
+      <c r="F11" s="6">
+        <v>59.907968</v>
+      </c>
+      <c r="G11" s="6">
+        <v>59.907968</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" ht="16.5" spans="1:9">
       <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
@@ -1305,17 +1952,17 @@
       <c r="E12" s="4">
         <v>1400</v>
       </c>
-      <c r="F12" s="5">
-        <v>507.9095350000002</v>
-      </c>
-      <c r="G12" s="5">
-        <v>507.9095350000002</v>
-      </c>
-      <c r="H12" s="6">
-        <v>1.834117765277778</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0.3627925250000001</v>
+      <c r="F12" s="6">
+        <v>547.647321</v>
+      </c>
+      <c r="G12" s="6">
+        <v>547.647321</v>
+      </c>
+      <c r="H12" s="5">
+        <v>1.87353030868421</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.391176657857143</v>
       </c>
     </row>
   </sheetData>
@@ -1324,22 +1971,26 @@
     <mergeCell ref="A2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="6" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.70833333333333" customWidth="1"/>
+    <col min="2" max="6" width="11.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1">
+    <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1348,7 +1999,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1357,7 +2008,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" ht="15" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -1374,24 +2025,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="16.5" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="4">
         <v>120</v>
       </c>
-      <c r="D4" s="5">
-        <v>43.55277699999998</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.3629398083333332</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="D4" s="6">
+        <v>43.827362</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.365228016666666</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:5">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>20</v>
@@ -1399,125 +2050,125 @@
       <c r="C5" s="4">
         <v>531</v>
       </c>
-      <c r="D5" s="5">
-        <v>64.34886099999997</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.2079831148775895</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="D5" s="6">
+        <v>71.153438</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.225387913370998</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:5">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="4">
         <v>150</v>
       </c>
-      <c r="D6" s="5">
-        <v>21.760431</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0.14506954</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="D6" s="6">
+        <v>23.154195</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.1543613</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:5">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="4">
         <v>135</v>
       </c>
-      <c r="D7" s="5">
-        <v>3.503843</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0.02595439259259259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="8" customHeight="1">
+      <c r="D7" s="6">
+        <v>3.552286</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.0263132296296296</v>
+      </c>
+    </row>
+    <row r="8" ht="8" customHeight="1" spans="1:5">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" ht="16.5" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="4">
         <v>48</v>
       </c>
-      <c r="D9" s="5">
-        <v>21.837696</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.454952</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="D9" s="6">
+        <v>22.052716</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.459431583333333</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:5">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C10" s="4">
         <v>54</v>
       </c>
-      <c r="D10" s="5">
-        <v>16.13699799999999</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0.2988332962962961</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="D10" s="6">
+        <v>17.38382</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.321922592592592</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C11" s="4">
         <v>72</v>
       </c>
-      <c r="D11" s="5">
-        <v>10.656446</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0.1480061944444444</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="D11" s="6">
+        <v>10.993071</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.152681541666667</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:5">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4">
         <v>60</v>
       </c>
-      <c r="D12" s="5">
-        <v>6.339654999999992</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0.1056609166666665</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="D12" s="6">
+        <v>7.03701299999999</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.11728355</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4">
         <v>1170</v>
       </c>
-      <c r="D13" s="5">
-        <v>234.2268800000006</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0.2001939145299151</v>
+      <c r="D13" s="6">
+        <v>247.681445000001</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.211693542735043</v>
       </c>
     </row>
   </sheetData>
@@ -1530,37 +2181,41 @@
     <mergeCell ref="A9:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.70833333333333" customWidth="1"/>
+    <col min="2" max="2" width="12.7083333333333" customWidth="1"/>
+    <col min="3" max="3" width="16.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" ht="24" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" ht="14.25" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" ht="30" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -1571,101 +2226,101 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" ht="16.5" spans="1:3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>11.246613</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" ht="16.5" spans="1:3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="5">
-        <v>3.614526999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3.76547</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:3">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="5">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6">
         <v>3.567925</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" ht="16.5" spans="1:3">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="5">
+        <v>29</v>
+      </c>
+      <c r="C7" s="6">
         <v>2.540945</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" ht="16.5" spans="1:3">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="5">
+        <v>32</v>
+      </c>
+      <c r="C8" s="6">
         <v>2.119797</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" ht="16.5" spans="1:3">
       <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="5">
+        <v>33</v>
+      </c>
+      <c r="C9" s="6">
         <v>1.474527</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" ht="16.5" spans="1:3">
       <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="5">
+        <v>34</v>
+      </c>
+      <c r="C10" s="6">
         <v>0.283962</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" ht="16.5" spans="1:3">
       <c r="A11" s="4">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="5">
+        <v>31</v>
+      </c>
+      <c r="C11" s="6">
         <v>0.16132</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" ht="16.5" spans="1:3">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="5">
-        <v>25.009616</v>
+        <v>35</v>
+      </c>
+      <c r="C12" s="6">
+        <v>25.160559</v>
       </c>
     </row>
   </sheetData>
@@ -1674,37 +2329,41 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="8.70833333333333" customWidth="1"/>
+    <col min="2" max="2" width="12.7083333333333" customWidth="1"/>
+    <col min="3" max="3" width="16.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1">
+    <row r="1" ht="24" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" ht="14.25" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" ht="15" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -1715,101 +2374,101 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" ht="16.5" spans="1:3">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="5">
+        <v>31</v>
+      </c>
+      <c r="C4" s="6">
         <v>5.879013</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" ht="16.5" spans="1:3">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1.215973</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>34</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1.777293</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:3">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="5">
+        <v>33</v>
+      </c>
+      <c r="C6" s="6">
         <v>1.130142</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" ht="16.5" spans="1:3">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>1.018868</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" ht="16.5" spans="1:3">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="5">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6">
         <v>0.481131</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" ht="16.5" spans="1:3">
       <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="5">
+        <v>28</v>
+      </c>
+      <c r="C9" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" ht="16.5" spans="1:3">
       <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="5">
+        <v>29</v>
+      </c>
+      <c r="C10" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" ht="16.5" spans="1:3">
       <c r="A11" s="4">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="5">
+        <v>32</v>
+      </c>
+      <c r="C11" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" ht="16.5" spans="1:3">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="5">
-        <v>9.725127000000001</v>
+        <v>35</v>
+      </c>
+      <c r="C12" s="6">
+        <v>10.286447</v>
       </c>
     </row>
   </sheetData>
@@ -1818,26 +2477,30 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.70833333333333" customWidth="1"/>
+    <col min="2" max="3" width="12.7083333333333" customWidth="1"/>
+    <col min="4" max="4" width="10.7083333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.7083333333333" customWidth="1"/>
+    <col min="6" max="6" width="10.7083333333333" customWidth="1"/>
+    <col min="7" max="7" width="12.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="24" customHeight="1">
+    <row r="1" ht="24" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1848,7 +2511,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" ht="14.25" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1859,7 +2522,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" ht="30" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -1882,209 +2545,209 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" ht="16.5" spans="1:7">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="5">
-        <v>4.498982999999996</v>
+        <v>34</v>
+      </c>
+      <c r="C4" s="6">
+        <v>4.63502099999999</v>
       </c>
       <c r="D4" s="4">
         <v>8</v>
       </c>
-      <c r="E4" s="6">
-        <v>2.843107312499997</v>
+      <c r="E4" s="5">
+        <v>2.77491388815789</v>
       </c>
       <c r="F4" s="4">
         <v>9</v>
       </c>
-      <c r="G4" s="6">
-        <v>2.527206499999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="5">
+        <v>2.46659012280701</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:7">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1.274368</v>
+        <v>31</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1.489388</v>
       </c>
       <c r="D5" s="4">
         <v>2.5</v>
       </c>
-      <c r="E5" s="6">
-        <v>2.577055288888889</v>
+      <c r="E5" s="5">
+        <v>2.85335385263158</v>
       </c>
       <c r="F5" s="4">
         <v>3</v>
       </c>
-      <c r="G5" s="6">
-        <v>2.147546074074075</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="5">
+        <v>2.37779487719298</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:7">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5">
-        <v>3.693627</v>
+      <c r="C6" s="6">
+        <v>4.271789</v>
       </c>
       <c r="D6" s="4">
         <v>9</v>
       </c>
-      <c r="E6" s="6">
-        <v>2.074815166666667</v>
+      <c r="E6" s="5">
+        <v>2.27329122222222</v>
       </c>
       <c r="F6" s="4">
         <v>11</v>
       </c>
-      <c r="G6" s="6">
-        <v>1.697576045454545</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="5">
+        <v>1.85996554545454</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:7">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="5">
-        <v>3.764720999999998</v>
+        <v>28</v>
+      </c>
+      <c r="C7" s="6">
+        <v>8.69643299999999</v>
       </c>
       <c r="D7" s="4">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1.903275616666666</v>
+        <v>23</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1.81092769565217</v>
       </c>
       <c r="F7" s="4">
-        <v>12</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1.586063013888888</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>25</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1.66605348</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:7">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="5">
-        <v>7.57969999999999</v>
+        <v>33</v>
+      </c>
+      <c r="C8" s="6">
+        <v>4.091714</v>
       </c>
       <c r="D8" s="4">
-        <v>23</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1.666069323671495</v>
+        <v>10</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1.95971565263158</v>
       </c>
       <c r="F8" s="4">
-        <v>25</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1.532783777777776</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1.63309637719298</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:7">
       <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="5">
-        <v>5.005574999999998</v>
+        <v>32</v>
+      </c>
+      <c r="C9" s="6">
+        <v>5.821042</v>
       </c>
       <c r="D9" s="4">
         <v>16</v>
       </c>
-      <c r="E9" s="6">
-        <v>1.581622656249999</v>
+      <c r="E9" s="5">
+        <v>1.74248296710526</v>
       </c>
       <c r="F9" s="4">
         <v>19</v>
       </c>
-      <c r="G9" s="6">
-        <v>1.331892763157894</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="5">
+        <v>1.46735407756233</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:7">
       <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0.9852660000000002</v>
+        <v>27</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1.09004</v>
       </c>
       <c r="D10" s="4">
         <v>3</v>
       </c>
-      <c r="E10" s="6">
-        <v>1.660355666666667</v>
+      <c r="E10" s="5">
+        <v>1.74023929824561</v>
       </c>
       <c r="F10" s="4">
         <v>4</v>
       </c>
-      <c r="G10" s="6">
-        <v>1.24526675</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="5">
+        <v>1.30517947368421</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:7">
       <c r="A11" s="4">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0.11136</v>
+        <v>29</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.159803</v>
       </c>
       <c r="D11" s="4">
         <v>1.5</v>
       </c>
-      <c r="E11" s="6">
-        <v>0.3753244444444445</v>
+      <c r="E11" s="5">
+        <v>0.510248175438597</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
       </c>
-      <c r="G11" s="6">
-        <v>0.2814933333333334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="5">
+        <v>0.382686131578947</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:7">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="5">
-        <v>26.91359999999989</v>
+        <v>35</v>
+      </c>
+      <c r="C12" s="6">
+        <v>30.2552299999999</v>
       </c>
       <c r="D12" s="4">
         <v>73</v>
       </c>
-      <c r="E12" s="6">
-        <v>1.863879452054787</v>
+      <c r="E12" s="5">
+        <v>1.9850222999279</v>
       </c>
       <c r="F12" s="4">
         <v>85</v>
       </c>
-      <c r="G12" s="6">
-        <v>1.600743529411758</v>
+      <c r="G12" s="5">
+        <v>1.70478385758513</v>
       </c>
     </row>
   </sheetData>
@@ -2093,24 +2756,26 @@
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E136"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.70833333333333" customWidth="1"/>
+    <col min="2" max="5" width="12.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" customHeight="1">
+    <row r="1" ht="24" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -2119,7 +2784,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" ht="14.25" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2128,7 +2793,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" ht="30" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
@@ -2145,7 +2810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" ht="16.5" spans="1:5">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -2155,320 +2820,320 @@
       <c r="C4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="5">
-        <v>10255.54</v>
+      <c r="D4" s="6">
+        <v>11110.64</v>
       </c>
       <c r="E4" s="4">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:5">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="5">
-        <v>7190.64</v>
+      <c r="D5" s="6">
+        <v>9406.12</v>
       </c>
       <c r="E5" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:5">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="5">
-        <v>6957.42</v>
+      <c r="D6" s="6">
+        <v>8939.68</v>
       </c>
       <c r="E6" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:5">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="5">
-        <v>6646.440000000001</v>
+      <c r="D7" s="6">
+        <v>7190.64</v>
       </c>
       <c r="E7" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:5">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="5">
-        <v>6368.94</v>
+      <c r="D8" s="6">
+        <v>6715.03</v>
       </c>
       <c r="E8" s="4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:5">
       <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="5">
-        <v>5713.610000000001</v>
+      <c r="D9" s="6">
+        <v>6646.44</v>
       </c>
       <c r="E9" s="4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:5">
       <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="5">
-        <v>5674.76</v>
+      <c r="D10" s="6">
+        <v>6368.94</v>
       </c>
       <c r="E10" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" ht="16.5" spans="1:5">
       <c r="A11" s="4">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="5">
-        <v>5510.11</v>
+      <c r="D11" s="6">
+        <v>6102.29</v>
       </c>
       <c r="E11" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:5">
       <c r="A12" s="4">
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="5">
-        <v>5415.15</v>
+      <c r="D12" s="6">
+        <v>5558.14</v>
       </c>
       <c r="E12" s="4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:5">
       <c r="A13" s="4">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="5">
-        <v>5385.240000000001</v>
+      <c r="D13" s="6">
+        <v>5415.15</v>
       </c>
       <c r="E13" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:5">
       <c r="A14" s="4">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="5">
-        <v>5363.800000000001</v>
+      <c r="D14" s="6">
+        <v>5408.33</v>
       </c>
       <c r="E14" s="4">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="1:5">
       <c r="A15" s="4">
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="5">
-        <v>5019.65</v>
+      <c r="D15" s="6">
+        <v>5385.24</v>
       </c>
       <c r="E15" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:5">
       <c r="A16" s="4">
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="5">
-        <v>4736.259999999999</v>
+      <c r="D16" s="6">
+        <v>5154.55</v>
       </c>
       <c r="E16" s="4">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:5">
       <c r="A17" s="4">
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D17" s="5">
-        <v>4703.040000000001</v>
+      <c r="D17" s="6">
+        <v>5091.72</v>
       </c>
       <c r="E17" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:5">
       <c r="A18" s="4">
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="5">
-        <v>4620.219999999999</v>
+      <c r="D18" s="6">
+        <v>4837.94</v>
       </c>
       <c r="E18" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:5">
       <c r="A19" s="4">
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="5">
-        <v>4568.13</v>
+      <c r="D19" s="6">
+        <v>4736.26</v>
       </c>
       <c r="E19" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:5">
       <c r="A20" s="4">
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="5">
-        <v>4398.14</v>
+      <c r="D20" s="6">
+        <v>4620.22</v>
       </c>
       <c r="E20" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:5">
       <c r="A21" s="4">
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="5">
-        <v>4363.42</v>
+      <c r="D21" s="6">
+        <v>4421.9</v>
       </c>
       <c r="E21" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="1:5">
       <c r="A22" s="4">
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="5">
-        <v>4120.04</v>
+      <c r="D22" s="6">
+        <v>4398.14</v>
       </c>
       <c r="E22" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="1:5">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -2478,14 +3143,14 @@
       <c r="C23" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="5">
-        <v>3944.26</v>
+      <c r="D23" s="6">
+        <v>4392.1</v>
       </c>
       <c r="E23" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="1:5">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -2495,473 +3160,473 @@
       <c r="C24" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="5">
-        <v>3770.2</v>
+      <c r="D24" s="6">
+        <v>4363.42</v>
       </c>
       <c r="E24" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" ht="16.5" spans="1:5">
       <c r="A25" s="4">
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="5">
-        <v>3653.6</v>
+      <c r="D25" s="6">
+        <v>4120.04</v>
       </c>
       <c r="E25" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" ht="16.5" spans="1:5">
       <c r="A26" s="4">
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="5">
-        <v>3615.12</v>
+      <c r="D26" s="6">
+        <v>4104.94</v>
       </c>
       <c r="E26" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="1:5">
       <c r="A27" s="4">
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="5">
-        <v>3567.38</v>
+      <c r="D27" s="6">
+        <v>4081.15</v>
       </c>
       <c r="E27" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="1:5">
       <c r="A28" s="4">
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="5">
-        <v>3561.72</v>
+      <c r="D28" s="6">
+        <v>4050.4</v>
       </c>
       <c r="E28" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="1:5">
       <c r="A29" s="4">
         <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="5">
-        <v>3498.14</v>
+      <c r="D29" s="6">
+        <v>4020.4</v>
       </c>
       <c r="E29" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="1:5">
       <c r="A30" s="4">
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D30" s="5">
-        <v>3420.78</v>
+      <c r="D30" s="6">
+        <v>3981.88</v>
       </c>
       <c r="E30" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="1:5">
       <c r="A31" s="4">
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="5">
-        <v>3420.76</v>
+      <c r="D31" s="6">
+        <v>3964.54</v>
       </c>
       <c r="E31" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" ht="16.5" spans="1:5">
       <c r="A32" s="4">
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="5">
-        <v>3342.66</v>
+      <c r="D32" s="6">
+        <v>3944.26</v>
       </c>
       <c r="E32" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="1:5">
       <c r="A33" s="4">
         <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D33" s="5">
-        <v>3274.16</v>
+      <c r="D33" s="6">
+        <v>3859.46</v>
       </c>
       <c r="E33" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="1:5">
       <c r="A34" s="4">
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="5">
-        <v>3231.72</v>
+      <c r="D34" s="6">
+        <v>3762.84</v>
       </c>
       <c r="E34" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="1:5">
       <c r="A35" s="4">
         <v>32</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="5">
-        <v>3226.06</v>
+      <c r="D35" s="6">
+        <v>3692.48</v>
       </c>
       <c r="E35" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" spans="1:5">
       <c r="A36" s="4">
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="5">
-        <v>3225.42</v>
+      <c r="D36" s="6">
+        <v>3681.82</v>
       </c>
       <c r="E36" s="4">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="1:5">
       <c r="A37" s="4">
         <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D37" s="5">
-        <v>3209.26</v>
+      <c r="D37" s="6">
+        <v>3567.38</v>
       </c>
       <c r="E37" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" ht="16.5" spans="1:5">
       <c r="A38" s="4">
         <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D38" s="5">
-        <v>3128.48</v>
+      <c r="D38" s="6">
+        <v>3539.37</v>
       </c>
       <c r="E38" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" ht="16.5" spans="1:5">
       <c r="A39" s="4">
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D39" s="5">
-        <v>3085.400000000001</v>
+      <c r="D39" s="6">
+        <v>3518.64</v>
       </c>
       <c r="E39" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5" spans="1:5">
       <c r="A40" s="4">
         <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="5">
-        <v>2994.16</v>
+      <c r="D40" s="6">
+        <v>3468.5</v>
       </c>
       <c r="E40" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" spans="1:5">
       <c r="A41" s="4">
         <v>38</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D41" s="5">
-        <v>2876.24</v>
+      <c r="D41" s="6">
+        <v>3342.66</v>
       </c>
       <c r="E41" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" spans="1:5">
       <c r="A42" s="4">
         <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D42" s="5">
-        <v>2735.48</v>
+      <c r="D42" s="6">
+        <v>3264.92</v>
       </c>
       <c r="E42" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="16.5" spans="1:5">
       <c r="A43" s="4">
         <v>40</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D43" s="5">
-        <v>2712.02</v>
+      <c r="D43" s="6">
+        <v>3187.18</v>
       </c>
       <c r="E43" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="16.5" spans="1:5">
       <c r="A44" s="4">
         <v>41</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D44" s="5">
-        <v>2702.46</v>
+      <c r="D44" s="6">
+        <v>3100.7</v>
       </c>
       <c r="E44" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" ht="16.5" spans="1:5">
       <c r="A45" s="4">
         <v>42</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D45" s="5">
-        <v>2687.76</v>
+      <c r="D45" s="6">
+        <v>3091.14</v>
       </c>
       <c r="E45" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" ht="16.5" spans="1:5">
       <c r="A46" s="4">
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D46" s="5">
-        <v>2681.9</v>
+      <c r="D46" s="6">
+        <v>3085.4</v>
       </c>
       <c r="E46" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" ht="16.5" spans="1:5">
       <c r="A47" s="4">
         <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D47" s="5">
-        <v>2514.27</v>
+      <c r="D47" s="6">
+        <v>2915.88</v>
       </c>
       <c r="E47" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" ht="16.5" spans="1:5">
       <c r="A48" s="4">
         <v>45</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D48" s="5">
-        <v>2423.62</v>
+      <c r="D48" s="6">
+        <v>2820.78</v>
       </c>
       <c r="E48" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" ht="16.5" spans="1:5">
       <c r="A49" s="4">
         <v>46</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D49" s="5">
-        <v>2394.55</v>
+      <c r="D49" s="6">
+        <v>2687.8</v>
       </c>
       <c r="E49" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" ht="16.5" spans="1:5">
       <c r="A50" s="4">
         <v>47</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="5">
-        <v>2210.02</v>
+      <c r="D50" s="6">
+        <v>2687.76</v>
       </c>
       <c r="E50" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" ht="16.5" spans="1:5">
       <c r="A51" s="4">
         <v>48</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="5">
-        <v>2187.74</v>
+      <c r="D51" s="6">
+        <v>2681.9</v>
       </c>
       <c r="E51" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" ht="16.5" spans="1:5">
       <c r="A52" s="4">
         <v>49</v>
       </c>
@@ -2971,150 +3636,150 @@
       <c r="C52" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="5">
-        <v>2181.99</v>
+      <c r="D52" s="6">
+        <v>2617.96</v>
       </c>
       <c r="E52" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" ht="16.5" spans="1:5">
       <c r="A53" s="4">
         <v>50</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D53" s="5">
-        <v>2171.38</v>
+      <c r="D53" s="6">
+        <v>2394.55</v>
       </c>
       <c r="E53" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" ht="16.5" spans="1:5">
       <c r="A54" s="4">
         <v>51</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D54" s="5">
-        <v>2163.93</v>
+      <c r="D54" s="6">
+        <v>2238.31</v>
       </c>
       <c r="E54" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" ht="16.5" spans="1:5">
       <c r="A55" s="4">
         <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D55" s="5">
-        <v>2138.89</v>
+      <c r="D55" s="6">
+        <v>2190.56</v>
       </c>
       <c r="E55" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" ht="16.5" spans="1:5">
       <c r="A56" s="4">
         <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D56" s="5">
-        <v>2137.74</v>
+      <c r="D56" s="6">
+        <v>2187.74</v>
       </c>
       <c r="E56" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" ht="16.5" spans="1:5">
       <c r="A57" s="4">
         <v>54</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D57" s="5">
-        <v>1969.42</v>
+      <c r="D57" s="6">
+        <v>2181.99</v>
       </c>
       <c r="E57" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" ht="16.5" spans="1:5">
       <c r="A58" s="4">
         <v>55</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D58" s="5">
-        <v>1759.26</v>
+      <c r="D58" s="6">
+        <v>2176.62</v>
       </c>
       <c r="E58" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" ht="16.5" spans="1:5">
       <c r="A59" s="4">
         <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D59" s="5">
-        <v>1749.63</v>
+      <c r="D59" s="6">
+        <v>2163.93</v>
       </c>
       <c r="E59" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" ht="16.5" spans="1:5">
       <c r="A60" s="4">
         <v>57</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D60" s="5">
-        <v>1711.33</v>
+      <c r="D60" s="6">
+        <v>2137.74</v>
       </c>
       <c r="E60" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" ht="16.5" spans="1:5">
       <c r="A61" s="4">
         <v>58</v>
       </c>
@@ -3124,65 +3789,65 @@
       <c r="C61" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D61" s="5">
-        <v>1706.13</v>
+      <c r="D61" s="6">
+        <v>1969.42</v>
       </c>
       <c r="E61" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" ht="16.5" spans="1:5">
       <c r="A62" s="4">
         <v>59</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D62" s="5">
-        <v>1632.46</v>
+      <c r="D62" s="6">
+        <v>1819.08</v>
       </c>
       <c r="E62" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" ht="16.5" spans="1:5">
       <c r="A63" s="4">
         <v>60</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D63" s="5">
-        <v>1624.74</v>
+      <c r="D63" s="6">
+        <v>1759.26</v>
       </c>
       <c r="E63" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" ht="16.5" spans="1:5">
       <c r="A64" s="4">
         <v>61</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D64" s="5">
-        <v>1593.6</v>
+      <c r="D64" s="6">
+        <v>1711.33</v>
       </c>
       <c r="E64" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" ht="16.5" spans="1:5">
       <c r="A65" s="4">
         <v>62</v>
       </c>
@@ -3192,167 +3857,167 @@
       <c r="C65" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D65" s="5">
-        <v>1515.86</v>
+      <c r="D65" s="6">
+        <v>1632.46</v>
       </c>
       <c r="E65" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" ht="16.5" spans="1:5">
       <c r="A66" s="4">
         <v>63</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D66" s="5">
-        <v>1477</v>
+      <c r="D66" s="6">
+        <v>1623.31</v>
       </c>
       <c r="E66" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" ht="16.5" spans="1:5">
       <c r="A67" s="4">
         <v>64</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D67" s="5">
-        <v>1456.13</v>
+      <c r="D67" s="6">
+        <v>1515.86</v>
       </c>
       <c r="E67" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" ht="16.5" spans="1:5">
       <c r="A68" s="4">
         <v>65</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D68" s="5">
-        <v>1399.26</v>
+      <c r="D68" s="6">
+        <v>1477</v>
       </c>
       <c r="E68" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" ht="16.5" spans="1:5">
       <c r="A69" s="4">
         <v>66</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D69" s="5">
-        <v>1376.6</v>
+      <c r="D69" s="6">
+        <v>1477</v>
       </c>
       <c r="E69" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" ht="16.5" spans="1:5">
       <c r="A70" s="4">
         <v>67</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D70" s="5">
-        <v>1360.38</v>
+      <c r="D70" s="6">
+        <v>1456.13</v>
       </c>
       <c r="E70" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" ht="16.5" spans="1:5">
       <c r="A71" s="4">
         <v>68</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D71" s="5">
-        <v>1360.38</v>
+      <c r="D71" s="6">
+        <v>1399.26</v>
       </c>
       <c r="E71" s="4">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" ht="16.5" spans="1:5">
       <c r="A72" s="4">
         <v>69</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D72" s="5">
-        <v>1330.6</v>
+      <c r="D72" s="6">
+        <v>1399.26</v>
       </c>
       <c r="E72" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" ht="16.5" spans="1:5">
       <c r="A73" s="4">
         <v>70</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D73" s="5">
-        <v>1311.7</v>
+      <c r="D73" s="6">
+        <v>1376.6</v>
       </c>
       <c r="E73" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" ht="16.5" spans="1:5">
       <c r="A74" s="4">
         <v>71</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D74" s="5">
-        <v>1282.66</v>
+      <c r="D74" s="6">
+        <v>1362.93</v>
       </c>
       <c r="E74" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" ht="16.5" spans="1:5">
       <c r="A75" s="4">
         <v>72</v>
       </c>
@@ -3362,99 +4027,99 @@
       <c r="C75" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D75" s="5">
-        <v>1259.52</v>
+      <c r="D75" s="6">
+        <v>1360.38</v>
       </c>
       <c r="E75" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" ht="16.5" spans="1:5">
       <c r="A76" s="4">
         <v>73</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D76" s="5">
-        <v>1243.78</v>
+      <c r="D76" s="6">
+        <v>1360.38</v>
       </c>
       <c r="E76" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" ht="16.5" spans="1:5">
       <c r="A77" s="4">
         <v>74</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D77" s="5">
-        <v>1204.92</v>
+      <c r="D77" s="6">
+        <v>1360.38</v>
       </c>
       <c r="E77" s="4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" ht="16.5" spans="1:5">
       <c r="A78" s="4">
         <v>75</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D78" s="5">
-        <v>1171.99</v>
+      <c r="D78" s="6">
+        <v>1330.6</v>
       </c>
       <c r="E78" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" ht="16.5" spans="1:5">
       <c r="A79" s="4">
         <v>76</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D79" s="5">
-        <v>1166.04</v>
+      <c r="D79" s="6">
+        <v>1311.7</v>
       </c>
       <c r="E79" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" ht="16.5" spans="1:5">
       <c r="A80" s="4">
         <v>77</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D80" s="5">
-        <v>1138.31</v>
+      <c r="D80" s="6">
+        <v>1282.66</v>
       </c>
       <c r="E80" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" ht="16.5" spans="1:5">
       <c r="A81" s="4">
         <v>78</v>
       </c>
@@ -3464,14 +4129,14 @@
       <c r="C81" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D81" s="5">
-        <v>1118.59</v>
+      <c r="D81" s="6">
+        <v>1259.52</v>
       </c>
       <c r="E81" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" ht="16.5" spans="1:5">
       <c r="A82" s="4">
         <v>79</v>
       </c>
@@ -3481,405 +4146,405 @@
       <c r="C82" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D82" s="5">
-        <v>1057.65</v>
+      <c r="D82" s="6">
+        <v>1221.7</v>
       </c>
       <c r="E82" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" ht="16.5" spans="1:5">
       <c r="A83" s="4">
         <v>80</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D83" s="5">
-        <v>1044.98</v>
+      <c r="D83" s="6">
+        <v>1171.99</v>
       </c>
       <c r="E83" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" ht="16.5" spans="1:5">
       <c r="A84" s="4">
         <v>81</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D84" s="5">
-        <v>1010.58</v>
+      <c r="D84" s="6">
+        <v>1166.04</v>
       </c>
       <c r="E84" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" ht="16.5" spans="1:5">
       <c r="A85" s="4">
         <v>82</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D85" s="5">
-        <v>1010.58</v>
+      <c r="D85" s="6">
+        <v>1057.65</v>
       </c>
       <c r="E85" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" ht="16.5" spans="1:5">
       <c r="A86" s="4">
         <v>83</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D86" s="5">
-        <v>977.36</v>
+      <c r="D86" s="6">
+        <v>1044.98</v>
       </c>
       <c r="E86" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" ht="16.5" spans="1:5">
       <c r="A87" s="4">
         <v>84</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D87" s="5">
-        <v>974.8199999999999</v>
+      <c r="D87" s="6">
+        <v>1010.58</v>
       </c>
       <c r="E87" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" ht="16.5" spans="1:5">
       <c r="A88" s="4">
         <v>85</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D88" s="5">
-        <v>905.1</v>
+      <c r="D88" s="6">
+        <v>977.36</v>
       </c>
       <c r="E88" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" ht="16.5" spans="1:5">
       <c r="A89" s="4">
         <v>86</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D89" s="5">
-        <v>855.1</v>
+      <c r="D89" s="6">
+        <v>974.82</v>
       </c>
       <c r="E89" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" ht="16.5" spans="1:5">
       <c r="A90" s="4">
         <v>87</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="D90" s="5">
-        <v>830.76</v>
+      <c r="D90" s="6">
+        <v>905.1</v>
       </c>
       <c r="E90" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" ht="16.5" spans="1:5">
       <c r="A91" s="4">
         <v>88</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D91" s="5">
-        <v>777.36</v>
+      <c r="D91" s="6">
+        <v>855.1</v>
       </c>
       <c r="E91" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" ht="16.5" spans="1:5">
       <c r="A92" s="4">
         <v>89</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D92" s="5">
-        <v>777.36</v>
+      <c r="D92" s="6">
+        <v>830.76</v>
       </c>
       <c r="E92" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" ht="16.5" spans="1:5">
       <c r="A93" s="4">
         <v>90</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D93" s="5">
-        <v>777.36</v>
+      <c r="D93" s="6">
+        <v>830.76</v>
       </c>
       <c r="E93" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" ht="16.5" spans="1:5">
       <c r="A94" s="4">
         <v>91</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D94" s="5">
-        <v>738.5</v>
+      <c r="D94" s="6">
+        <v>777.36</v>
       </c>
       <c r="E94" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" ht="16.5" spans="1:5">
       <c r="A95" s="4">
         <v>92</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D95" s="5">
-        <v>710.76</v>
+      <c r="D95" s="6">
+        <v>777.36</v>
       </c>
       <c r="E95" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" ht="16.5" spans="1:5">
       <c r="A96" s="4">
         <v>93</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="D96" s="5">
-        <v>660.76</v>
+      <c r="D96" s="6">
+        <v>777.36</v>
       </c>
       <c r="E96" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" ht="16.5" spans="1:5">
       <c r="A97" s="4">
         <v>94</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D97" s="5">
-        <v>586.42</v>
+      <c r="D97" s="6">
+        <v>738.5</v>
       </c>
       <c r="E97" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" ht="16.5" spans="1:5">
       <c r="A98" s="4">
         <v>95</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="D98" s="5">
-        <v>583.02</v>
+      <c r="D98" s="6">
+        <v>710.76</v>
       </c>
       <c r="E98" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" ht="16.5" spans="1:5">
       <c r="A99" s="4">
         <v>96</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="D99" s="5">
-        <v>583.02</v>
+      <c r="D99" s="6">
+        <v>660.76</v>
       </c>
       <c r="E99" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" ht="16.5" spans="1:5">
       <c r="A100" s="4">
         <v>97</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D100" s="5">
-        <v>583.02</v>
+      <c r="D100" s="6">
+        <v>586.42</v>
       </c>
       <c r="E100" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" ht="16.5" spans="1:5">
       <c r="A101" s="4">
         <v>98</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D101" s="5">
-        <v>544.16</v>
+      <c r="D101" s="6">
+        <v>583.02</v>
       </c>
       <c r="E101" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" ht="16.5" spans="1:5">
       <c r="A102" s="4">
         <v>99</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D102" s="5">
-        <v>488.68</v>
+      <c r="D102" s="6">
+        <v>583.02</v>
       </c>
       <c r="E102" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" ht="16.5" spans="1:5">
       <c r="A103" s="4">
         <v>100</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="D103" s="5">
-        <v>488.68</v>
+      <c r="D103" s="6">
+        <v>583.02</v>
       </c>
       <c r="E103" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" ht="16.5" spans="1:5">
       <c r="A104" s="4">
         <v>101</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D104" s="5">
-        <v>485</v>
+      <c r="D104" s="6">
+        <v>583.02</v>
       </c>
       <c r="E104" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" ht="16.5" spans="1:5">
       <c r="A105" s="4">
         <v>102</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D105" s="5">
-        <v>466.42</v>
+      <c r="D105" s="6">
+        <v>544.16</v>
       </c>
       <c r="E105" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" ht="16.5" spans="1:5">
       <c r="A106" s="4">
         <v>103</v>
       </c>
@@ -3889,201 +4554,201 @@
       <c r="C106" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D106" s="5">
-        <v>466.42</v>
+      <c r="D106" s="6">
+        <v>544.15</v>
       </c>
       <c r="E106" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" ht="16.5" spans="1:5">
       <c r="A107" s="4">
         <v>104</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="D107" s="5">
-        <v>466.42</v>
+      <c r="D107" s="6">
+        <v>488.68</v>
       </c>
       <c r="E107" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" ht="16.5" spans="1:5">
       <c r="A108" s="4">
         <v>105</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D108" s="5">
-        <v>438.68</v>
+      <c r="D108" s="6">
+        <v>485</v>
       </c>
       <c r="E108" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" ht="16.5" spans="1:5">
       <c r="A109" s="4">
         <v>106</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D109" s="5">
-        <v>388.68</v>
+      <c r="D109" s="6">
+        <v>484.43</v>
       </c>
       <c r="E109" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" ht="16.5" spans="1:5">
       <c r="A110" s="4">
         <v>107</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="D110" s="5">
-        <v>388.68</v>
+      <c r="D110" s="6">
+        <v>484.43</v>
       </c>
       <c r="E110" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" ht="16.5" spans="1:5">
       <c r="A111" s="4">
         <v>108</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D111" s="5">
-        <v>388.68</v>
+      <c r="D111" s="6">
+        <v>480.19</v>
       </c>
       <c r="E111" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" ht="16.5" spans="1:5">
       <c r="A112" s="4">
         <v>109</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="D112" s="5">
-        <v>388.68</v>
+      <c r="D112" s="6">
+        <v>466.42</v>
       </c>
       <c r="E112" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" ht="16.5" spans="1:5">
       <c r="A113" s="4">
         <v>110</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D113" s="5">
-        <v>310.94</v>
+      <c r="D113" s="6">
+        <v>466.42</v>
       </c>
       <c r="E113" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" ht="16.5" spans="1:5">
       <c r="A114" s="4">
         <v>111</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="D114" s="5">
-        <v>272.08</v>
+      <c r="D114" s="6">
+        <v>466.42</v>
       </c>
       <c r="E114" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" ht="16.5" spans="1:5">
       <c r="A115" s="4">
         <v>112</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="D115" s="5">
-        <v>272.08</v>
+      <c r="D115" s="6">
+        <v>438.68</v>
       </c>
       <c r="E115" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" ht="16.5" spans="1:5">
       <c r="A116" s="4">
         <v>113</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D116" s="5">
-        <v>272.08</v>
+      <c r="D116" s="6">
+        <v>388.68</v>
       </c>
       <c r="E116" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" ht="16.5" spans="1:5">
       <c r="A117" s="4">
         <v>114</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D117" s="5">
-        <v>264.16</v>
+      <c r="D117" s="6">
+        <v>388.68</v>
       </c>
       <c r="E117" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" ht="16.5" spans="1:5">
       <c r="A118" s="4">
         <v>115</v>
       </c>
@@ -4093,99 +4758,99 @@
       <c r="C118" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="D118" s="5">
-        <v>244.34</v>
+      <c r="D118" s="6">
+        <v>388.68</v>
       </c>
       <c r="E118" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" ht="16.5" spans="1:5">
       <c r="A119" s="4">
         <v>116</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="D119" s="5">
-        <v>244.34</v>
+      <c r="D119" s="6">
+        <v>272.08</v>
       </c>
       <c r="E119" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" ht="16.5" spans="1:5">
       <c r="A120" s="4">
         <v>117</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D120" s="5">
-        <v>244.34</v>
+      <c r="D120" s="6">
+        <v>272.08</v>
       </c>
       <c r="E120" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" ht="16.5" spans="1:5">
       <c r="A121" s="4">
         <v>118</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D121" s="5">
-        <v>244.34</v>
+      <c r="D121" s="6">
+        <v>272.08</v>
       </c>
       <c r="E121" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" ht="16.5" spans="1:5">
       <c r="A122" s="4">
         <v>119</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D122" s="5">
-        <v>244.34</v>
+      <c r="D122" s="6">
+        <v>264.16</v>
       </c>
       <c r="E122" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" ht="16.5" spans="1:5">
       <c r="A123" s="4">
         <v>120</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D123" s="5">
-        <v>235.85</v>
+      <c r="D123" s="6">
+        <v>244.34</v>
       </c>
       <c r="E123" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" ht="16.5" spans="1:5">
       <c r="A124" s="4">
         <v>121</v>
       </c>
@@ -4195,201 +4860,201 @@
       <c r="C124" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="D124" s="5">
-        <v>194.34</v>
+      <c r="D124" s="6">
+        <v>244.34</v>
       </c>
       <c r="E124" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" ht="16.5" spans="1:5">
       <c r="A125" s="4">
         <v>122</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="D125" s="5">
-        <v>194.34</v>
+      <c r="D125" s="6">
+        <v>244.34</v>
       </c>
       <c r="E125" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" ht="16.5" spans="1:5">
       <c r="A126" s="4">
         <v>123</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D126" s="5">
-        <v>194.34</v>
+      <c r="D126" s="6">
+        <v>244.34</v>
       </c>
       <c r="E126" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" ht="16.5" spans="1:5">
       <c r="A127" s="4">
         <v>124</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="D127" s="5">
-        <v>194.34</v>
+      <c r="D127" s="6">
+        <v>244.34</v>
       </c>
       <c r="E127" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" ht="16.5" spans="1:5">
       <c r="A128" s="4">
         <v>125</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="6">
         <v>194.34</v>
       </c>
       <c r="E128" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" ht="16.5" spans="1:5">
       <c r="A129" s="4">
         <v>126</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="6">
         <v>194.34</v>
       </c>
       <c r="E129" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" ht="16.5" spans="1:5">
       <c r="A130" s="4">
         <v>127</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="D130" s="5">
+      <c r="D130" s="6">
         <v>194.34</v>
       </c>
       <c r="E130" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" ht="16.5" spans="1:5">
       <c r="A131" s="4">
         <v>128</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D131" s="5">
+      <c r="D131" s="6">
         <v>194.34</v>
       </c>
       <c r="E131" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" ht="16.5" spans="1:5">
       <c r="A132" s="4">
         <v>129</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="D132" s="5">
+      <c r="D132" s="6">
         <v>194.34</v>
       </c>
       <c r="E132" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" ht="16.5" spans="1:5">
       <c r="A133" s="4">
         <v>130</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D133" s="5">
+      <c r="D133" s="6">
         <v>194.34</v>
       </c>
       <c r="E133" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" ht="16.5" spans="1:5">
       <c r="A134" s="4">
         <v>131</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="D134" s="5">
+      <c r="D134" s="6">
         <v>194.34</v>
       </c>
       <c r="E134" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" ht="16.5" spans="1:5">
       <c r="A135" s="4">
         <v>132</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D135" s="5">
-        <v>188.68</v>
+      <c r="D135" s="6">
+        <v>194.34</v>
       </c>
       <c r="E135" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" ht="16.5" spans="1:5">
       <c r="A136" s="4">
         <v>133</v>
       </c>
@@ -4399,11 +5064,79 @@
       <c r="C136" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D136" s="5">
-        <v>96.89</v>
+      <c r="D136" s="6">
+        <v>194.34</v>
       </c>
       <c r="E136" s="4">
         <v>1</v>
+      </c>
+    </row>
+    <row r="137" ht="16.5" spans="1:5">
+      <c r="A137" s="4">
+        <v>134</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D137" s="6">
+        <v>194.34</v>
+      </c>
+      <c r="E137" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" ht="16.5" spans="1:5">
+      <c r="A138" s="4">
+        <v>135</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D138" s="6">
+        <v>194.34</v>
+      </c>
+      <c r="E138" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" ht="16.5" spans="1:5">
+      <c r="A139" s="4">
+        <v>136</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D139" s="6">
+        <v>188.68</v>
+      </c>
+      <c r="E139" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" ht="16.5" spans="1:5">
+      <c r="A140" s="4">
+        <v>137</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D140" s="6">
+        <v>-19.71</v>
+      </c>
+      <c r="E140" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4412,25 +5145,28 @@
     <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F136"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:F23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.70833333333333" customWidth="1"/>
+    <col min="2" max="4" width="12.7083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1">
+    <row r="1" ht="24" customHeight="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4438,7 +5174,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" ht="14.25" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -4448,7 +5184,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" ht="30" spans="1:6">
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
@@ -4462,41 +5198,41 @@
         <v>50</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:6">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D4" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="F4" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" ht="16.5" spans="1:6">
       <c r="A5" s="4">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -4504,19 +5240,19 @@
       <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" ht="16.5" spans="1:6">
       <c r="A6" s="4">
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D6" s="4">
         <v>11</v>
@@ -4524,99 +5260,99 @@
       <c r="E6" s="4">
         <v>14</v>
       </c>
-      <c r="F6" s="6">
-        <v>0.7857142857142857</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="5">
+        <v>0.785714285714286</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:6">
       <c r="A7" s="4">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>54</v>
+        <v>122</v>
       </c>
       <c r="D7" s="4">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="E7" s="4">
-        <v>44</v>
-      </c>
-      <c r="F7" s="6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.777777777777778</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:6">
       <c r="A8" s="4">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D8" s="4">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E8" s="4">
-        <v>28</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0.6785714285714286</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>44</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:6">
       <c r="A9" s="4">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="D9" s="4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="4">
-        <v>30</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.678571428571429</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:6">
       <c r="A10" s="4">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="4">
         <v>20</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="4">
-        <v>4</v>
-      </c>
       <c r="E10" s="4">
-        <v>6</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:6">
       <c r="A11" s="4">
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D11" s="4">
         <v>2</v>
@@ -4624,99 +5360,99 @@
       <c r="E11" s="4">
         <v>3</v>
       </c>
-      <c r="F11" s="6">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" s="5">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:6">
       <c r="A12" s="4">
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="D12" s="4">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E12" s="4">
-        <v>3</v>
-      </c>
-      <c r="F12" s="6">
-        <v>0.6666666666666666</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.647058823529412</v>
+      </c>
+    </row>
+    <row r="13" ht="16.5" spans="1:6">
       <c r="A13" s="4">
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D13" s="4">
         <v>17</v>
       </c>
       <c r="E13" s="4">
-        <v>26</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0.6538461538461539</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.62962962962963</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:6">
       <c r="A14" s="4">
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>91</v>
+        <v>136</v>
       </c>
       <c r="D14" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E14" s="4">
-        <v>15</v>
-      </c>
-      <c r="F14" s="6">
+        <v>5</v>
+      </c>
+      <c r="F14" s="5">
         <v>0.6</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" ht="16.5" spans="1:6">
       <c r="A15" s="4">
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>134</v>
+        <v>70</v>
       </c>
       <c r="D15" s="4">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="E15" s="4">
-        <v>5</v>
-      </c>
-      <c r="F15" s="6">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.583333333333333</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="1:6">
       <c r="A16" s="4">
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D16" s="4">
         <v>4</v>
@@ -4724,251 +5460,251 @@
       <c r="E16" s="4">
         <v>7</v>
       </c>
-      <c r="F16" s="6">
-        <v>0.5714285714285714</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16" s="5">
+        <v>0.571428571428571</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="1:6">
       <c r="A17" s="4">
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="4">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E17" s="4">
-        <v>55</v>
-      </c>
-      <c r="F17" s="6">
-        <v>0.5636363636363636</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>74</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.567567567567568</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="1:6">
       <c r="A18" s="4">
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="D18" s="4">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E18" s="4">
-        <v>34</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0.5294117647058824</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0.565217391304348</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="1:6">
       <c r="A19" s="4">
         <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D19" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E19" s="4">
-        <v>17</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0.5294117647058824</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.518518518518518</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="1:6">
       <c r="A20" s="4">
         <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="D20" s="4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E20" s="4">
-        <v>21</v>
-      </c>
-      <c r="F20" s="6">
-        <v>0.5238095238095238</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="1:6">
       <c r="A21" s="4">
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D21" s="4">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E21" s="4">
-        <v>29</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0.5172413793103449</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="1:6">
       <c r="A22" s="4">
         <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="D22" s="4">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E22" s="4">
-        <v>6</v>
-      </c>
-      <c r="F22" s="6">
+        <v>26</v>
+      </c>
+      <c r="F22" s="5">
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" ht="16.5" spans="1:6">
       <c r="A23" s="4">
         <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="D23" s="4">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E23" s="4">
-        <v>33</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0.4848484848484849</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>6</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="1:6">
       <c r="A24" s="4">
         <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>80</v>
+        <v>152</v>
       </c>
       <c r="D24" s="4">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E24" s="4">
-        <v>28</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0.4642857142857143</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="1:6">
       <c r="A25" s="4">
         <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D25" s="4">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E25" s="4">
-        <v>28</v>
-      </c>
-      <c r="F25" s="6">
-        <v>0.4642857142857143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>34</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.470588235294118</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="1:6">
       <c r="A26" s="4">
         <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D26" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E26" s="4">
-        <v>26</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0.4615384615384616</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.466666666666667</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="1:6">
       <c r="A27" s="4">
         <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="D27" s="4">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E27" s="4">
-        <v>22</v>
-      </c>
-      <c r="F27" s="6">
-        <v>0.4545454545454545</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>54</v>
+      </c>
+      <c r="F27" s="5">
+        <v>0.462962962962963</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="1:6">
       <c r="A28" s="4">
         <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D28" s="4">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E28" s="4">
-        <v>31</v>
-      </c>
-      <c r="F28" s="6">
-        <v>0.4516129032258064</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>48</v>
+      </c>
+      <c r="F28" s="5">
+        <v>0.458333333333333</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="1:6">
       <c r="A29" s="4">
         <v>26</v>
       </c>
@@ -4976,47 +5712,47 @@
         <v>32</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D29" s="4">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E29" s="4">
-        <v>51</v>
-      </c>
-      <c r="F29" s="6">
-        <v>0.4509803921568628</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>35</v>
+      </c>
+      <c r="F29" s="5">
+        <v>0.457142857142857</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="1:6">
       <c r="A30" s="4">
         <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="D30" s="4">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E30" s="4">
-        <v>9</v>
-      </c>
-      <c r="F30" s="6">
-        <v>0.4444444444444444</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="F30" s="5">
+        <v>0.448275862068966</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="1:6">
       <c r="A31" s="4">
         <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D31" s="4">
         <v>7</v>
@@ -5024,19 +5760,19 @@
       <c r="E31" s="4">
         <v>16</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <v>0.4375</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" ht="16.5" spans="1:6">
       <c r="A32" s="4">
         <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D32" s="4">
         <v>31</v>
@@ -5044,51 +5780,51 @@
       <c r="E32" s="4">
         <v>71</v>
       </c>
-      <c r="F32" s="6">
-        <v>0.4366197183098591</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="F32" s="5">
+        <v>0.436619718309859</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="1:6">
       <c r="A33" s="4">
         <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D33" s="4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E33" s="4">
-        <v>23</v>
-      </c>
-      <c r="F33" s="6">
-        <v>0.4347826086956522</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>47</v>
+      </c>
+      <c r="F33" s="5">
+        <v>0.425531914893617</v>
+      </c>
+    </row>
+    <row r="34" ht="16.5" spans="1:6">
       <c r="A34" s="4">
         <v>31</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D34" s="4">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E34" s="4">
-        <v>44</v>
-      </c>
-      <c r="F34" s="6">
-        <v>0.4318181818181818</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>52</v>
+      </c>
+      <c r="F34" s="5">
+        <v>0.423076923076923</v>
+      </c>
+    </row>
+    <row r="35" ht="16.5" spans="1:6">
       <c r="A35" s="4">
         <v>32</v>
       </c>
@@ -5096,179 +5832,179 @@
         <v>27</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="D35" s="4">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E35" s="4">
-        <v>52</v>
-      </c>
-      <c r="F35" s="6">
-        <v>0.4230769230769231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="F35" s="5">
+        <v>0.419354838709677</v>
+      </c>
+    </row>
+    <row r="36" ht="16.5" spans="1:6">
       <c r="A36" s="4">
         <v>33</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D36" s="4">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E36" s="4">
-        <v>31</v>
-      </c>
-      <c r="F36" s="6">
-        <v>0.4193548387096774</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="F36" s="5">
+        <v>0.411764705882353</v>
+      </c>
+    </row>
+    <row r="37" ht="16.5" spans="1:6">
       <c r="A37" s="4">
         <v>34</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D37" s="4">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E37" s="4">
-        <v>40</v>
-      </c>
-      <c r="F37" s="6">
+        <v>35</v>
+      </c>
+      <c r="F37" s="5">
         <v>0.4</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" ht="16.5" spans="1:6">
       <c r="A38" s="4">
         <v>35</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="D38" s="4">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E38" s="4">
-        <v>35</v>
-      </c>
-      <c r="F38" s="6">
+        <v>10</v>
+      </c>
+      <c r="F38" s="5">
         <v>0.4</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" ht="16.5" spans="1:6">
       <c r="A39" s="4">
         <v>36</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D39" s="4">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E39" s="4">
-        <v>68</v>
-      </c>
-      <c r="F39" s="6">
-        <v>0.3823529411764706</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="F39" s="5">
+        <v>0.396551724137931</v>
+      </c>
+    </row>
+    <row r="40" ht="16.5" spans="1:6">
       <c r="A40" s="4">
         <v>37</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D40" s="4">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="E40" s="4">
-        <v>55</v>
-      </c>
-      <c r="F40" s="6">
-        <v>0.3818181818181818</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>106</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.39622641509434</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5" spans="1:6">
       <c r="A41" s="4">
         <v>38</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D41" s="4">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E41" s="4">
-        <v>50</v>
-      </c>
-      <c r="F41" s="6">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>36</v>
+      </c>
+      <c r="F41" s="5">
+        <v>0.388888888888889</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5" spans="1:6">
       <c r="A42" s="4">
         <v>39</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="D42" s="4">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="E42" s="4">
-        <v>130</v>
-      </c>
-      <c r="F42" s="6">
-        <v>0.3692307692307693</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>13</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0.384615384615385</v>
+      </c>
+    </row>
+    <row r="43" ht="16.5" spans="1:6">
       <c r="A43" s="4">
         <v>40</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="D43" s="4">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E43" s="4">
-        <v>45</v>
-      </c>
-      <c r="F43" s="6">
-        <v>0.3555555555555556</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>138</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0.376811594202899</v>
+      </c>
+    </row>
+    <row r="44" ht="16.5" spans="1:6">
       <c r="A44" s="4">
         <v>41</v>
       </c>
@@ -5276,167 +6012,167 @@
         <v>27</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="D44" s="4">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E44" s="4">
-        <v>23</v>
-      </c>
-      <c r="F44" s="6">
-        <v>0.3478260869565217</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>52</v>
+      </c>
+      <c r="F44" s="5">
+        <v>0.365384615384615</v>
+      </c>
+    </row>
+    <row r="45" ht="16.5" spans="1:6">
       <c r="A45" s="4">
         <v>42</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
       <c r="D45" s="4">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E45" s="4">
-        <v>54</v>
-      </c>
-      <c r="F45" s="6">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>72</v>
+      </c>
+      <c r="F45" s="5">
+        <v>0.361111111111111</v>
+      </c>
+    </row>
+    <row r="46" ht="16.5" spans="1:6">
       <c r="A46" s="4">
         <v>43</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="D46" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E46" s="4">
-        <v>9</v>
-      </c>
-      <c r="F46" s="6">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>23</v>
+      </c>
+      <c r="F46" s="5">
+        <v>0.347826086956522</v>
+      </c>
+    </row>
+    <row r="47" ht="16.5" spans="1:6">
       <c r="A47" s="4">
         <v>44</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D47" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E47" s="4">
-        <v>3</v>
-      </c>
-      <c r="F47" s="6">
-        <v>0.3333333333333333</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="F47" s="5">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="48" ht="16.5" spans="1:6">
       <c r="A48" s="4">
         <v>45</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>57</v>
+        <v>156</v>
       </c>
       <c r="D48" s="4">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E48" s="4">
-        <v>79</v>
-      </c>
-      <c r="F48" s="6">
-        <v>0.3291139240506329</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F48" s="5">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="49" ht="16.5" spans="1:6">
       <c r="A49" s="4">
         <v>46</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>70</v>
+        <v>168</v>
       </c>
       <c r="D49" s="4">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E49" s="4">
-        <v>58</v>
-      </c>
-      <c r="F49" s="6">
-        <v>0.3275862068965517</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F49" s="5">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row r="50" ht="16.5" spans="1:6">
       <c r="A50" s="4">
         <v>47</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="D50" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E50" s="4">
-        <v>16</v>
-      </c>
-      <c r="F50" s="6">
-        <v>0.3125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="F50" s="5">
+        <v>0.321428571428572</v>
+      </c>
+    </row>
+    <row r="51" ht="16.5" spans="1:6">
       <c r="A51" s="4">
         <v>48</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D51" s="4">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E51" s="4">
-        <v>45</v>
-      </c>
-      <c r="F51" s="6">
-        <v>0.3111111111111111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="F51" s="5">
+        <v>0.311475409836066</v>
+      </c>
+    </row>
+    <row r="52" ht="16.5" spans="1:6">
       <c r="A52" s="4">
         <v>49</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D52" s="4">
         <v>18</v>
@@ -5444,431 +6180,431 @@
       <c r="E52" s="4">
         <v>59</v>
       </c>
-      <c r="F52" s="6">
-        <v>0.3050847457627119</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="F52" s="5">
+        <v>0.305084745762712</v>
+      </c>
+    </row>
+    <row r="53" ht="16.5" spans="1:6">
       <c r="A53" s="4">
         <v>50</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D53" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E53" s="4">
-        <v>43</v>
-      </c>
-      <c r="F53" s="6">
-        <v>0.3023255813953488</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>46</v>
+      </c>
+      <c r="F53" s="5">
+        <v>0.304347826086956</v>
+      </c>
+    </row>
+    <row r="54" ht="16.5" spans="1:6">
       <c r="A54" s="4">
         <v>51</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D54" s="4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E54" s="4">
-        <v>61</v>
-      </c>
-      <c r="F54" s="6">
-        <v>0.2950819672131147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>53</v>
+      </c>
+      <c r="F54" s="5">
+        <v>0.30188679245283</v>
+      </c>
+    </row>
+    <row r="55" ht="16.5" spans="1:6">
       <c r="A55" s="4">
         <v>52</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D55" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E55" s="4">
-        <v>55</v>
-      </c>
-      <c r="F55" s="6">
-        <v>0.2909090909090909</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="F55" s="5">
+        <v>0.298245614035088</v>
+      </c>
+    </row>
+    <row r="56" ht="16.5" spans="1:6">
       <c r="A56" s="4">
         <v>53</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D56" s="4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E56" s="4">
-        <v>42</v>
-      </c>
-      <c r="F56" s="6">
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>54</v>
+      </c>
+      <c r="F56" s="5">
+        <v>0.296296296296296</v>
+      </c>
+    </row>
+    <row r="57" ht="16.5" spans="1:6">
       <c r="A57" s="4">
         <v>54</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="D57" s="4">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="E57" s="4">
-        <v>28</v>
-      </c>
-      <c r="F57" s="6">
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>68</v>
+      </c>
+      <c r="F57" s="5">
+        <v>0.294117647058823</v>
+      </c>
+    </row>
+    <row r="58" ht="16.5" spans="1:6">
       <c r="A58" s="4">
         <v>55</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D58" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E58" s="4">
-        <v>14</v>
-      </c>
-      <c r="F58" s="6">
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>17</v>
+      </c>
+      <c r="F58" s="5">
+        <v>0.294117647058823</v>
+      </c>
+    </row>
+    <row r="59" ht="16.5" spans="1:6">
       <c r="A59" s="4">
         <v>56</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="D59" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E59" s="4">
-        <v>40</v>
-      </c>
-      <c r="F59" s="6">
-        <v>0.275</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="F59" s="5">
+        <v>0.288888888888889</v>
+      </c>
+    </row>
+    <row r="60" ht="16.5" spans="1:6">
       <c r="A60" s="4">
         <v>57</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D60" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E60" s="4">
-        <v>27</v>
-      </c>
-      <c r="F60" s="6">
-        <v>0.2592592592592592</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>28</v>
+      </c>
+      <c r="F60" s="5">
+        <v>0.285714285714286</v>
+      </c>
+    </row>
+    <row r="61" ht="16.5" spans="1:6">
       <c r="A61" s="4">
         <v>58</v>
       </c>
       <c r="B61" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="4">
+        <v>9</v>
+      </c>
+      <c r="E61" s="4">
         <v>32</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D61" s="4">
-        <v>8</v>
-      </c>
-      <c r="E61" s="4">
-        <v>31</v>
-      </c>
-      <c r="F61" s="6">
-        <v>0.2580645161290323</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+      <c r="F61" s="5">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="62" ht="16.5" spans="1:6">
       <c r="A62" s="4">
         <v>59</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" s="4">
         <v>30</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D62" s="4">
-        <v>25</v>
-      </c>
       <c r="E62" s="4">
-        <v>98</v>
-      </c>
-      <c r="F62" s="6">
-        <v>0.2551020408163265</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>108</v>
+      </c>
+      <c r="F62" s="5">
+        <v>0.277777777777778</v>
+      </c>
+    </row>
+    <row r="63" ht="16.5" spans="1:6">
       <c r="A63" s="4">
         <v>60</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="D63" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E63" s="4">
-        <v>20</v>
-      </c>
-      <c r="F63" s="6">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>40</v>
+      </c>
+      <c r="F63" s="5">
+        <v>0.275</v>
+      </c>
+    </row>
+    <row r="64" ht="16.5" spans="1:6">
       <c r="A64" s="4">
         <v>61</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="D64" s="4">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E64" s="4">
-        <v>4</v>
-      </c>
-      <c r="F64" s="6">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="F64" s="5">
+        <v>0.266666666666667</v>
+      </c>
+    </row>
+    <row r="65" ht="16.5" spans="1:6">
       <c r="A65" s="4">
         <v>62</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="D65" s="4">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E65" s="4">
-        <v>76</v>
-      </c>
-      <c r="F65" s="6">
-        <v>0.2368421052631579</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>15</v>
+      </c>
+      <c r="F65" s="5">
+        <v>0.266666666666667</v>
+      </c>
+    </row>
+    <row r="66" ht="16.5" spans="1:6">
       <c r="A66" s="4">
         <v>63</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="D66" s="4">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E66" s="4">
-        <v>94</v>
-      </c>
-      <c r="F66" s="6">
-        <v>0.2340425531914894</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="F66" s="5">
+        <v>0.258064516129032</v>
+      </c>
+    </row>
+    <row r="67" ht="16.5" spans="1:6">
       <c r="A67" s="4">
         <v>64</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="D67" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E67" s="4">
-        <v>39</v>
-      </c>
-      <c r="F67" s="6">
-        <v>0.2307692307692308</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="F67" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="68" ht="16.5" spans="1:6">
       <c r="A68" s="4">
         <v>65</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="D68" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E68" s="4">
-        <v>9</v>
-      </c>
-      <c r="F68" s="6">
-        <v>0.2222222222222222</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="F68" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="69" ht="16.5" spans="1:6">
       <c r="A69" s="4">
         <v>66</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="D69" s="4">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E69" s="4">
-        <v>28</v>
-      </c>
-      <c r="F69" s="6">
-        <v>0.2142857142857143</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>96</v>
+      </c>
+      <c r="F69" s="5">
+        <v>0.229166666666667</v>
+      </c>
+    </row>
+    <row r="70" ht="16.5" spans="1:6">
       <c r="A70" s="4">
         <v>67</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="D70" s="4">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E70" s="4">
-        <v>10</v>
-      </c>
-      <c r="F70" s="6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>79</v>
+      </c>
+      <c r="F70" s="5">
+        <v>0.227848101265823</v>
+      </c>
+    </row>
+    <row r="71" ht="16.5" spans="1:6">
       <c r="A71" s="4">
         <v>68</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="D71" s="4">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E71" s="4">
-        <v>142</v>
-      </c>
-      <c r="F71" s="6">
-        <v>0.1830985915492958</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>45</v>
+      </c>
+      <c r="F71" s="5">
+        <v>0.222222222222222</v>
+      </c>
+    </row>
+    <row r="72" ht="16.5" spans="1:6">
       <c r="A72" s="4">
         <v>69</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="D72" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E72" s="4">
-        <v>66</v>
-      </c>
-      <c r="F72" s="6">
-        <v>0.1818181818181818</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="F72" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="73" ht="16.5" spans="1:6">
       <c r="A73" s="4">
         <v>70</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="D73" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E73" s="4">
-        <v>50</v>
-      </c>
-      <c r="F73" s="6">
-        <v>0.18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="F73" s="5">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="74" ht="16.5" spans="1:6">
       <c r="A74" s="4">
         <v>71</v>
       </c>
@@ -5876,179 +6612,179 @@
         <v>20</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="D74" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E74" s="4">
-        <v>40</v>
-      </c>
-      <c r="F74" s="6">
-        <v>0.175</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>32</v>
+      </c>
+      <c r="F74" s="5">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="75" ht="16.5" spans="1:6">
       <c r="A75" s="4">
         <v>72</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>105</v>
+        <v>59</v>
       </c>
       <c r="D75" s="4">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="E75" s="4">
-        <v>36</v>
-      </c>
-      <c r="F75" s="6">
-        <v>0.1666666666666667</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>146</v>
+      </c>
+      <c r="F75" s="5">
+        <v>0.184931506849315</v>
+      </c>
+    </row>
+    <row r="76" ht="16.5" spans="1:6">
       <c r="A76" s="4">
         <v>73</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="D76" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E76" s="4">
-        <v>30</v>
-      </c>
-      <c r="F76" s="6">
-        <v>0.1666666666666667</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="F76" s="5">
+        <v>0.183333333333333</v>
+      </c>
+    </row>
+    <row r="77" ht="16.5" spans="1:6">
       <c r="A77" s="4">
         <v>74</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="D77" s="4">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E77" s="4">
-        <v>18</v>
-      </c>
-      <c r="F77" s="6">
-        <v>0.1666666666666667</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>73</v>
+      </c>
+      <c r="F77" s="5">
+        <v>0.178082191780822</v>
+      </c>
+    </row>
+    <row r="78" ht="16.5" spans="1:6">
       <c r="A78" s="4">
         <v>75</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="D78" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E78" s="4">
-        <v>6</v>
-      </c>
-      <c r="F78" s="6">
-        <v>0.1666666666666667</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>18</v>
+      </c>
+      <c r="F78" s="5">
+        <v>0.166666666666667</v>
+      </c>
+    </row>
+    <row r="79" ht="16.5" spans="1:6">
       <c r="A79" s="4">
         <v>76</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D79" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E79" s="4">
-        <v>49</v>
-      </c>
-      <c r="F79" s="6">
-        <v>0.163265306122449</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>18</v>
+      </c>
+      <c r="F79" s="5">
+        <v>0.166666666666667</v>
+      </c>
+    </row>
+    <row r="80" ht="16.5" spans="1:6">
       <c r="A80" s="4">
         <v>77</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="D80" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E80" s="4">
-        <v>43</v>
-      </c>
-      <c r="F80" s="6">
-        <v>0.1627906976744186</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>6</v>
+      </c>
+      <c r="F80" s="5">
+        <v>0.166666666666667</v>
+      </c>
+    </row>
+    <row r="81" ht="16.5" spans="1:6">
       <c r="A81" s="4">
         <v>78</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D81" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E81" s="4">
-        <v>20</v>
-      </c>
-      <c r="F81" s="6">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>50</v>
+      </c>
+      <c r="F81" s="5">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="82" ht="16.5" spans="1:6">
       <c r="A82" s="4">
         <v>79</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D82" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E82" s="4">
-        <v>74</v>
-      </c>
-      <c r="F82" s="6">
-        <v>0.1486486486486487</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="F82" s="5">
+        <v>0.153846153846154</v>
+      </c>
+    </row>
+    <row r="83" ht="16.5" spans="1:6">
       <c r="A83" s="4">
         <v>80</v>
       </c>
@@ -6056,27 +6792,27 @@
         <v>20</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D83" s="4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E83" s="4">
-        <v>41</v>
-      </c>
-      <c r="F83" s="6">
-        <v>0.1463414634146341</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>76</v>
+      </c>
+      <c r="F83" s="5">
+        <v>0.144736842105263</v>
+      </c>
+    </row>
+    <row r="84" ht="16.5" spans="1:6">
       <c r="A84" s="4">
         <v>81</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D84" s="4">
         <v>3</v>
@@ -6084,11 +6820,11 @@
       <c r="E84" s="4">
         <v>21</v>
       </c>
-      <c r="F84" s="6">
-        <v>0.1428571428571428</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="F84" s="5">
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="85" ht="16.5" spans="1:6">
       <c r="A85" s="4">
         <v>82</v>
       </c>
@@ -6096,27 +6832,27 @@
         <v>27</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="D85" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E85" s="4">
-        <v>7</v>
-      </c>
-      <c r="F85" s="6">
-        <v>0.1428571428571428</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="F85" s="5">
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="86" ht="16.5" spans="1:6">
       <c r="A86" s="4">
         <v>83</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -6124,91 +6860,91 @@
       <c r="E86" s="4">
         <v>7</v>
       </c>
-      <c r="F86" s="6">
-        <v>0.1428571428571428</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="F86" s="5">
+        <v>0.142857142857143</v>
+      </c>
+    </row>
+    <row r="87" ht="16.5" spans="1:6">
       <c r="A87" s="4">
         <v>84</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>180</v>
+        <v>114</v>
       </c>
       <c r="D87" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E87" s="4">
-        <v>7</v>
-      </c>
-      <c r="F87" s="6">
-        <v>0.1428571428571428</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>50</v>
+      </c>
+      <c r="F87" s="5">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="88" ht="16.5" spans="1:6">
       <c r="A88" s="4">
         <v>85</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="D88" s="4">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E88" s="4">
-        <v>36</v>
-      </c>
-      <c r="F88" s="6">
-        <v>0.1388888888888889</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>119</v>
+      </c>
+      <c r="F88" s="5">
+        <v>0.134453781512605</v>
+      </c>
+    </row>
+    <row r="89" ht="16.5" spans="1:6">
       <c r="A89" s="4">
         <v>86</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="D89" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E89" s="4">
-        <v>22</v>
-      </c>
-      <c r="F89" s="6">
-        <v>0.1363636363636364</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="F89" s="5">
+        <v>0.128205128205128</v>
+      </c>
+    </row>
+    <row r="90" ht="16.5" spans="1:6">
       <c r="A90" s="4">
         <v>87</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="D90" s="4">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E90" s="4">
-        <v>103</v>
-      </c>
-      <c r="F90" s="6">
-        <v>0.1359223300970874</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="F90" s="5">
+        <v>0.127272727272727</v>
+      </c>
+    </row>
+    <row r="91" ht="16.5" spans="1:6">
       <c r="A91" s="4">
         <v>88</v>
       </c>
@@ -6216,27 +6952,27 @@
         <v>27</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D91" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E91" s="4">
-        <v>16</v>
-      </c>
-      <c r="F91" s="6">
+        <v>24</v>
+      </c>
+      <c r="F91" s="5">
         <v>0.125</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" ht="16.5" spans="1:6">
       <c r="A92" s="4">
         <v>89</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -6244,71 +6980,71 @@
       <c r="E92" s="4">
         <v>8</v>
       </c>
-      <c r="F92" s="6">
+      <c r="F92" s="5">
         <v>0.125</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" ht="16.5" spans="1:6">
       <c r="A93" s="4">
         <v>90</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
       <c r="D93" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E93" s="4">
-        <v>8</v>
-      </c>
-      <c r="F93" s="6">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>50</v>
+      </c>
+      <c r="F93" s="5">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="94" ht="16.5" spans="1:6">
       <c r="A94" s="4">
         <v>91</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="D94" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E94" s="4">
-        <v>8</v>
-      </c>
-      <c r="F94" s="6">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>27</v>
+      </c>
+      <c r="F94" s="5">
+        <v>0.111111111111111</v>
+      </c>
+    </row>
+    <row r="95" ht="16.5" spans="1:6">
       <c r="A95" s="4">
         <v>92</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>114</v>
+        <v>161</v>
       </c>
       <c r="D95" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E95" s="4">
-        <v>49</v>
-      </c>
-      <c r="F95" s="6">
-        <v>0.1224489795918367</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>18</v>
+      </c>
+      <c r="F95" s="5">
+        <v>0.111111111111111</v>
+      </c>
+    </row>
+    <row r="96" ht="16.5" spans="1:6">
       <c r="A96" s="4">
         <v>93</v>
       </c>
@@ -6316,47 +7052,47 @@
         <v>28</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="D96" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E96" s="4">
-        <v>18</v>
-      </c>
-      <c r="F96" s="6">
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="F96" s="5">
+        <v>0.111111111111111</v>
+      </c>
+    </row>
+    <row r="97" ht="16.5" spans="1:6">
       <c r="A97" s="4">
         <v>94</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="D97" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E97" s="4">
-        <v>18</v>
-      </c>
-      <c r="F97" s="6">
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="F97" s="5">
+        <v>0.111111111111111</v>
+      </c>
+    </row>
+    <row r="98" ht="16.5" spans="1:6">
       <c r="A98" s="4">
         <v>95</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -6364,91 +7100,91 @@
       <c r="E98" s="4">
         <v>9</v>
       </c>
-      <c r="F98" s="6">
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="F98" s="5">
+        <v>0.111111111111111</v>
+      </c>
+    </row>
+    <row r="99" ht="16.5" spans="1:6">
       <c r="A99" s="4">
         <v>96</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="D99" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E99" s="4">
-        <v>48</v>
-      </c>
-      <c r="F99" s="6">
-        <v>0.1041666666666667</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="F99" s="5">
+        <v>0.111111111111111</v>
+      </c>
+    </row>
+    <row r="100" ht="16.5" spans="1:6">
       <c r="A100" s="4">
         <v>97</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="D100" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E100" s="4">
-        <v>70</v>
-      </c>
-      <c r="F100" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="F100" s="5">
+        <v>0.108108108108108</v>
+      </c>
+    </row>
+    <row r="101" ht="16.5" spans="1:6">
       <c r="A101" s="4">
         <v>98</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D101" s="4">
         <v>2</v>
       </c>
       <c r="E101" s="4">
-        <v>20</v>
-      </c>
-      <c r="F101" s="6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>19</v>
+      </c>
+      <c r="F101" s="5">
+        <v>0.105263157894737</v>
+      </c>
+    </row>
+    <row r="102" ht="16.5" spans="1:6">
       <c r="A102" s="4">
         <v>99</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="D102" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E102" s="4">
-        <v>44</v>
-      </c>
-      <c r="F102" s="6">
-        <v>0.09090909090909091</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>19</v>
+      </c>
+      <c r="F102" s="5">
+        <v>0.105263157894737</v>
+      </c>
+    </row>
+    <row r="103" ht="16.5" spans="1:6">
       <c r="A103" s="4">
         <v>100</v>
       </c>
@@ -6456,179 +7192,179 @@
         <v>27</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="D103" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E103" s="4">
-        <v>69</v>
-      </c>
-      <c r="F103" s="6">
-        <v>0.08695652173913043</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="F103" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="104" ht="16.5" spans="1:6">
       <c r="A104" s="4">
         <v>101</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>92</v>
+        <v>182</v>
       </c>
       <c r="D104" s="4">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E104" s="4">
-        <v>106</v>
-      </c>
-      <c r="F104" s="6">
-        <v>0.08490566037735849</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>10</v>
+      </c>
+      <c r="F104" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="105" ht="16.5" spans="1:6">
       <c r="A105" s="4">
         <v>102</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="D105" s="4">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E105" s="4">
-        <v>192</v>
-      </c>
-      <c r="F105" s="6">
-        <v>0.08333333333333333</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>75</v>
+      </c>
+      <c r="F105" s="5">
+        <v>0.0933333333333333</v>
+      </c>
+    </row>
+    <row r="106" ht="16.5" spans="1:6">
       <c r="A106" s="4">
         <v>103</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="D106" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E106" s="4">
-        <v>48</v>
-      </c>
-      <c r="F106" s="6">
-        <v>0.08333333333333333</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>80</v>
+      </c>
+      <c r="F106" s="5">
+        <v>0.0875</v>
+      </c>
+    </row>
+    <row r="107" ht="16.5" spans="1:6">
       <c r="A107" s="4">
         <v>104</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D107" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E107" s="4">
-        <v>50</v>
-      </c>
-      <c r="F107" s="6">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>69</v>
+      </c>
+      <c r="F107" s="5">
+        <v>0.0869565217391304</v>
+      </c>
+    </row>
+    <row r="108" ht="16.5" spans="1:6">
       <c r="A108" s="4">
         <v>105</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="D108" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E108" s="4">
-        <v>78</v>
-      </c>
-      <c r="F108" s="6">
-        <v>0.07692307692307693</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="F108" s="5">
+        <v>0.0784313725490196</v>
+      </c>
+    </row>
+    <row r="109" ht="16.5" spans="1:6">
       <c r="A109" s="4">
         <v>106</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="D109" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E109" s="4">
-        <v>82</v>
-      </c>
-      <c r="F109" s="6">
-        <v>0.07317073170731707</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>51</v>
+      </c>
+      <c r="F109" s="5">
+        <v>0.0784313725490196</v>
+      </c>
+    </row>
+    <row r="110" ht="16.5" spans="1:6">
       <c r="A110" s="4">
         <v>107</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>156</v>
+        <v>69</v>
       </c>
       <c r="D110" s="4">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E110" s="4">
-        <v>28</v>
-      </c>
-      <c r="F110" s="6">
-        <v>0.07142857142857142</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>211</v>
+      </c>
+      <c r="F110" s="5">
+        <v>0.0758293838862559</v>
+      </c>
+    </row>
+    <row r="111" ht="16.5" spans="1:6">
       <c r="A111" s="4">
         <v>108</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D111" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E111" s="4">
-        <v>88</v>
-      </c>
-      <c r="F111" s="6">
-        <v>0.06818181818181818</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
+        <v>53</v>
+      </c>
+      <c r="F111" s="5">
+        <v>0.0754716981132075</v>
+      </c>
+    </row>
+    <row r="112" ht="16.5" spans="1:6">
       <c r="A112" s="4">
         <v>109</v>
       </c>
@@ -6636,359 +7372,359 @@
         <v>20</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="D112" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E112" s="4">
-        <v>44</v>
-      </c>
-      <c r="F112" s="6">
-        <v>0.06818181818181818</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>93</v>
+      </c>
+      <c r="F112" s="5">
+        <v>0.0752688172043011</v>
+      </c>
+    </row>
+    <row r="113" ht="16.5" spans="1:6">
       <c r="A113" s="4">
         <v>110</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D113" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E113" s="4">
-        <v>59</v>
-      </c>
-      <c r="F113" s="6">
-        <v>0.06779661016949153</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>82</v>
+      </c>
+      <c r="F113" s="5">
+        <v>0.0731707317073171</v>
+      </c>
+    </row>
+    <row r="114" ht="16.5" spans="1:6">
       <c r="A114" s="4">
         <v>111</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="D114" s="4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E114" s="4">
-        <v>80</v>
-      </c>
-      <c r="F114" s="6">
-        <v>0.0625</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>125</v>
+      </c>
+      <c r="F114" s="5">
+        <v>0.072</v>
+      </c>
+    </row>
+    <row r="115" ht="16.5" spans="1:6">
       <c r="A115" s="4">
         <v>112</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
       <c r="D115" s="4">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="E115" s="4">
-        <v>467</v>
-      </c>
-      <c r="F115" s="6">
-        <v>0.05995717344753747</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>29</v>
+      </c>
+      <c r="F115" s="5">
+        <v>0.0689655172413793</v>
+      </c>
+    </row>
+    <row r="116" ht="16.5" spans="1:6">
       <c r="A116" s="4">
         <v>113</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="D116" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E116" s="4">
-        <v>18</v>
-      </c>
-      <c r="F116" s="6">
-        <v>0.05555555555555555</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>49</v>
+      </c>
+      <c r="F116" s="5">
+        <v>0.0612244897959184</v>
+      </c>
+    </row>
+    <row r="117" ht="16.5" spans="1:6">
       <c r="A117" s="4">
         <v>114</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="D117" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E117" s="4">
-        <v>38</v>
-      </c>
-      <c r="F117" s="6">
-        <v>0.05263157894736842</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>82</v>
+      </c>
+      <c r="F117" s="5">
+        <v>0.0609756097560976</v>
+      </c>
+    </row>
+    <row r="118" ht="16.5" spans="1:6">
       <c r="A118" s="4">
         <v>115</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D118" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E118" s="4">
-        <v>40</v>
-      </c>
-      <c r="F118" s="6">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>66</v>
+      </c>
+      <c r="F118" s="5">
+        <v>0.0606060606060606</v>
+      </c>
+    </row>
+    <row r="119" ht="16.5" spans="1:6">
       <c r="A119" s="4">
         <v>116</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="D119" s="4">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="E119" s="4">
-        <v>21</v>
-      </c>
-      <c r="F119" s="6">
-        <v>0.04761904761904762</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>515</v>
+      </c>
+      <c r="F119" s="5">
+        <v>0.058252427184466</v>
+      </c>
+    </row>
+    <row r="120" ht="16.5" spans="1:6">
       <c r="A120" s="4">
         <v>117</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="D120" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E120" s="4">
-        <v>43</v>
-      </c>
-      <c r="F120" s="6">
-        <v>0.04651162790697674</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>105</v>
+      </c>
+      <c r="F120" s="5">
+        <v>0.0571428571428571</v>
+      </c>
+    </row>
+    <row r="121" ht="16.5" spans="1:6">
       <c r="A121" s="4">
         <v>118</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="D121" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E121" s="4">
-        <v>94</v>
-      </c>
-      <c r="F121" s="6">
-        <v>0.0425531914893617</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="F121" s="5">
+        <v>0.0512820512820513</v>
+      </c>
+    </row>
+    <row r="122" ht="16.5" spans="1:6">
       <c r="A122" s="4">
         <v>119</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="D122" s="4">
         <v>1</v>
       </c>
       <c r="E122" s="4">
-        <v>25</v>
-      </c>
-      <c r="F122" s="6">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>20</v>
+      </c>
+      <c r="F122" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="123" ht="16.5" spans="1:6">
       <c r="A123" s="4">
         <v>120</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="D123" s="4">
         <v>1</v>
       </c>
       <c r="E123" s="4">
-        <v>25</v>
-      </c>
-      <c r="F123" s="6">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>21</v>
+      </c>
+      <c r="F123" s="5">
+        <v>0.0476190476190476</v>
+      </c>
+    </row>
+    <row r="124" ht="16.5" spans="1:6">
       <c r="A124" s="4">
         <v>121</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D124" s="4">
         <v>2</v>
       </c>
       <c r="E124" s="4">
-        <v>62</v>
-      </c>
-      <c r="F124" s="6">
-        <v>0.03225806451612903</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>46</v>
+      </c>
+      <c r="F124" s="5">
+        <v>0.0434782608695652</v>
+      </c>
+    </row>
+    <row r="125" ht="16.5" spans="1:6">
       <c r="A125" s="4">
         <v>122</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D125" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E125" s="4">
-        <v>33</v>
-      </c>
-      <c r="F125" s="6">
-        <v>0.0303030303030303</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
+        <v>50</v>
+      </c>
+      <c r="F125" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="126" ht="16.5" spans="1:6">
       <c r="A126" s="4">
         <v>123</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D126" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E126" s="4">
-        <v>33</v>
-      </c>
-      <c r="F126" s="6">
-        <v>0.0303030303030303</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="F126" s="5">
+        <v>0.0357142857142857</v>
+      </c>
+    </row>
+    <row r="127" ht="16.5" spans="1:6">
       <c r="A127" s="4">
         <v>124</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="D127" s="4">
         <v>1</v>
       </c>
       <c r="E127" s="4">
-        <v>34</v>
-      </c>
-      <c r="F127" s="6">
-        <v>0.02941176470588235</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>31</v>
+      </c>
+      <c r="F127" s="5">
+        <v>0.032258064516129</v>
+      </c>
+    </row>
+    <row r="128" ht="16.5" spans="1:6">
       <c r="A128" s="4">
         <v>125</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>125</v>
+        <v>162</v>
       </c>
       <c r="D128" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E128" s="4">
-        <v>175</v>
-      </c>
-      <c r="F128" s="6">
-        <v>0.02857142857142857</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>65</v>
+      </c>
+      <c r="F128" s="5">
+        <v>0.0307692307692308</v>
+      </c>
+    </row>
+    <row r="129" ht="16.5" spans="1:6">
       <c r="A129" s="4">
         <v>126</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D129" s="4">
         <v>1</v>
       </c>
       <c r="E129" s="4">
-        <v>38</v>
-      </c>
-      <c r="F129" s="6">
-        <v>0.02631578947368421</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>34</v>
+      </c>
+      <c r="F129" s="5">
+        <v>0.0294117647058823</v>
+      </c>
+    </row>
+    <row r="130" ht="16.5" spans="1:6">
       <c r="A130" s="4">
         <v>127</v>
       </c>
@@ -6996,135 +7732,215 @@
         <v>20</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="D130" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E130" s="4">
-        <v>42</v>
-      </c>
-      <c r="F130" s="6">
-        <v>0.02380952380952381</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>185</v>
+      </c>
+      <c r="F130" s="5">
+        <v>0.027027027027027</v>
+      </c>
+    </row>
+    <row r="131" ht="16.5" spans="1:6">
       <c r="A131" s="4">
         <v>128</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="D131" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E131" s="4">
-        <v>253</v>
-      </c>
-      <c r="F131" s="6">
-        <v>0.02371541501976284</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="F131" s="5">
+        <v>0.027027027027027</v>
+      </c>
+    </row>
+    <row r="132" ht="16.5" spans="1:6">
       <c r="A132" s="4">
         <v>129</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D132" s="4">
         <v>1</v>
       </c>
       <c r="E132" s="4">
-        <v>47</v>
-      </c>
-      <c r="F132" s="6">
-        <v>0.02127659574468085</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="F132" s="5">
+        <v>0.0263157894736842</v>
+      </c>
+    </row>
+    <row r="133" ht="16.5" spans="1:6">
       <c r="A133" s="4">
         <v>130</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="D133" s="4">
         <v>1</v>
       </c>
       <c r="E133" s="4">
-        <v>51</v>
-      </c>
-      <c r="F133" s="6">
-        <v>0.0196078431372549</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>38</v>
+      </c>
+      <c r="F133" s="5">
+        <v>0.0263157894736842</v>
+      </c>
+    </row>
+    <row r="134" ht="16.5" spans="1:6">
       <c r="A134" s="4">
         <v>131</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="D134" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E134" s="4">
-        <v>58</v>
-      </c>
-      <c r="F134" s="6">
-        <v>0.01724137931034483</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>267</v>
+      </c>
+      <c r="F134" s="5">
+        <v>0.0262172284644195</v>
+      </c>
+    </row>
+    <row r="135" ht="16.5" spans="1:6">
       <c r="A135" s="4">
         <v>132</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>122</v>
+        <v>185</v>
       </c>
       <c r="D135" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E135" s="4">
-        <v>199</v>
-      </c>
-      <c r="F135" s="6">
-        <v>0.01507537688442211</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
+        <v>53</v>
+      </c>
+      <c r="F135" s="5">
+        <v>0.0188679245283019</v>
+      </c>
+    </row>
+    <row r="136" ht="16.5" spans="1:6">
       <c r="A136" s="4">
         <v>133</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>83</v>
+        <v>180</v>
       </c>
       <c r="D136" s="4">
+        <v>1</v>
+      </c>
+      <c r="E136" s="4">
+        <v>66</v>
+      </c>
+      <c r="F136" s="5">
+        <v>0.0151515151515152</v>
+      </c>
+    </row>
+    <row r="137" ht="16.5" spans="1:6">
+      <c r="A137" s="4">
+        <v>134</v>
+      </c>
+      <c r="B137" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E136" s="4">
+      <c r="C137" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D137" s="4">
+        <v>1</v>
+      </c>
+      <c r="E137" s="4">
+        <v>69</v>
+      </c>
+      <c r="F137" s="5">
+        <v>0.0144927536231884</v>
+      </c>
+    </row>
+    <row r="138" ht="16.5" spans="1:6">
+      <c r="A138" s="4">
+        <v>135</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D138" s="4">
+        <v>3</v>
+      </c>
+      <c r="E138" s="4">
+        <v>210</v>
+      </c>
+      <c r="F138" s="5">
+        <v>0.0142857142857143</v>
+      </c>
+    </row>
+    <row r="139" ht="16.5" spans="1:6">
+      <c r="A139" s="4">
+        <v>136</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D139" s="4">
+        <v>36</v>
+      </c>
+      <c r="E139" s="4">
         <v>0</v>
       </c>
-      <c r="F136" s="6">
+      <c r="F139" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" ht="16.5" spans="1:6">
+      <c r="A140" s="4">
+        <v>137</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D140" s="4">
+        <v>0</v>
+      </c>
+      <c r="E140" s="4">
+        <v>50</v>
+      </c>
+      <c r="F140" s="5">
         <v>0</v>
       </c>
     </row>
@@ -7134,5 +7950,6 @@
     <mergeCell ref="A2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>